--- a/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Unidad de medida: Tasas / porcentaje</t>
-  </si>
-  <si>
-    <t>Última actualización: enero de 2022</t>
   </si>
   <si>
     <t>Periodicidad: quincenal</t>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>Inflación quincenal respecto a la misma quincena del año anterior por grupo de objeto de gasto</t>
+  </si>
+  <si>
+    <t>Última actualización: febrero de 2022</t>
   </si>
 </sst>
 </file>
@@ -620,11 +620,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:BI26"/>
+  <dimension ref="A8:BJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -636,42 +634,42 @@
     <col min="62" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>8</v>
       </c>
@@ -855,191 +853,197 @@
       <c r="BI15" s="3">
         <v>2022</v>
       </c>
+      <c r="BJ15" s="3">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="Q16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="S16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="T16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="U16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="V16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="W16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="X16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="Y16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Z16" s="4" t="s">
+      <c r="AB16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA16" s="4" t="s">
+      <c r="AC16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB16" s="4" t="s">
+      <c r="AD16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AC16" s="4" t="s">
+      <c r="AE16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AD16" s="4" t="s">
+      <c r="AF16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AE16" s="4" t="s">
+      <c r="AG16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF16" s="4" t="s">
+      <c r="AH16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AG16" s="4" t="s">
+      <c r="AI16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AH16" s="4" t="s">
+      <c r="AJ16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AI16" s="4" t="s">
+      <c r="AK16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AJ16" s="4" t="s">
+      <c r="AL16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AK16" s="4" t="s">
+      <c r="AM16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AL16" s="4" t="s">
+      <c r="AN16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AM16" s="4" t="s">
+      <c r="AO16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AN16" s="4" t="s">
+      <c r="AP16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AO16" s="4" t="s">
+      <c r="AQ16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AP16" s="4" t="s">
+      <c r="AR16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AQ16" s="4" t="s">
+      <c r="AS16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AR16" s="4" t="s">
+      <c r="AT16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AS16" s="4" t="s">
+      <c r="AU16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AT16" s="4" t="s">
+      <c r="AV16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AU16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AV16" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="AW16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AX16" s="4" t="s">
+      <c r="AZ16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AY16" s="4" t="s">
+      <c r="BA16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AZ16" s="4" t="s">
+      <c r="BB16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BA16" s="4" t="s">
+      <c r="BC16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="BB16" s="4" t="s">
+      <c r="BD16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="BC16" s="4" t="s">
+      <c r="BE16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="BD16" s="4" t="s">
+      <c r="BF16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="BE16" s="4" t="s">
+      <c r="BG16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="BF16" s="4" t="s">
+      <c r="BH16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="BG16" s="4" t="s">
+      <c r="BI16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BH16" s="4" t="s">
+      <c r="BJ16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BI16" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="5">
         <v>2</v>
@@ -1221,8 +1225,11 @@
       <c r="BI17" s="5">
         <v>1</v>
       </c>
+      <c r="BJ17" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
@@ -1406,8 +1413,11 @@
       <c r="BI18" s="6">
         <v>0.11100347696725432</v>
       </c>
+      <c r="BJ18" s="6">
+        <v>0.10780455107933462</v>
+      </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>1</v>
       </c>
@@ -1591,10 +1601,13 @@
       <c r="BI19" s="6">
         <v>3.5218114844524084E-2</v>
       </c>
+      <c r="BJ19" s="6">
+        <v>3.9153389711722664E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="6">
         <v>4.0189999999999948E-2</v>
@@ -1776,8 +1789,11 @@
       <c r="BI20" s="6">
         <v>7.0191696193331543E-2</v>
       </c>
+      <c r="BJ20" s="6">
+        <v>6.8429560992350646E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>2</v>
       </c>
@@ -1961,8 +1977,11 @@
       <c r="BI21" s="6">
         <v>3.9504423423078361E-2</v>
       </c>
+      <c r="BJ21" s="6">
+        <v>4.4962634797003131E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>3</v>
       </c>
@@ -2146,8 +2165,11 @@
       <c r="BI22" s="6">
         <v>6.5848409560135712E-2</v>
       </c>
+      <c r="BJ22" s="6">
+        <v>7.5036037216616336E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>4</v>
       </c>
@@ -2331,8 +2353,11 @@
       <c r="BI23" s="6">
         <v>2.9370574582064268E-2</v>
       </c>
+      <c r="BJ23" s="6">
+        <v>1.6947992254581656E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>5</v>
       </c>
@@ -2516,8 +2541,11 @@
       <c r="BI24" s="6">
         <v>2.4240429965997512E-2</v>
       </c>
+      <c r="BJ24" s="6">
+        <v>2.7995018223776924E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
@@ -2701,8 +2729,11 @@
       <c r="BI25" s="6">
         <v>9.3235985229942919E-2</v>
       </c>
+      <c r="BJ25" s="6">
+        <v>7.7661535076056998E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -2885,6 +2916,9 @@
       </c>
       <c r="BI26" s="7">
         <v>4.1658091193144564E-2</v>
+      </c>
+      <c r="BJ26" s="7">
+        <v>4.2182770339282083E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
@@ -65,9 +65,6 @@
     <t>Periodicidad: quincenal</t>
   </si>
   <si>
-    <t>Año / mes / quincena</t>
-  </si>
-  <si>
     <t>Índice general</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Inflación quincenal respecto a la misma quincena del año anterior por grupo de objeto de gasto</t>
   </si>
   <si>
-    <t>Última actualización: segunda quincena de enero de 2022</t>
-  </si>
-  <si>
     <t>2°Q/7/2019</t>
   </si>
   <si>
@@ -264,6 +258,12 @@
   </si>
   <si>
     <t>1°Q/2/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  03/09/2022</t>
+  </si>
+  <si>
+    <t>2°Q/2/2022</t>
   </si>
 </sst>
 </file>
@@ -727,7 +727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:BK24"/>
+  <dimension ref="A8:FA24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -741,1188 +741,1759 @@
     <col min="62" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="AA15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="AB15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AC15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AD15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AC15" s="3" t="s">
+      <c r="AE15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AD15" s="3" t="s">
+      <c r="AF15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AE15" s="3" t="s">
+      <c r="AG15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AF15" s="3" t="s">
+      <c r="AH15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AG15" s="3" t="s">
+      <c r="AI15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AH15" s="3" t="s">
+      <c r="AJ15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI15" s="3" t="s">
+      <c r="AK15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AJ15" s="3" t="s">
+      <c r="AL15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AK15" s="3" t="s">
+      <c r="AM15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AL15" s="3" t="s">
+      <c r="AN15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AM15" s="3" t="s">
+      <c r="AO15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AN15" s="3" t="s">
+      <c r="AP15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO15" s="3" t="s">
+      <c r="AQ15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AP15" s="3" t="s">
+      <c r="AR15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AQ15" s="3" t="s">
+      <c r="AS15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AR15" s="3" t="s">
+      <c r="AT15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AS15" s="3" t="s">
+      <c r="AU15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AT15" s="3" t="s">
+      <c r="AV15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AU15" s="3" t="s">
+      <c r="AW15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AV15" s="3" t="s">
+      <c r="AX15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AW15" s="3" t="s">
+      <c r="AY15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AX15" s="3" t="s">
+      <c r="AZ15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AY15" s="3" t="s">
+      <c r="BA15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AZ15" s="3" t="s">
+      <c r="BB15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BA15" s="3" t="s">
+      <c r="BC15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BB15" s="3" t="s">
+      <c r="BD15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BC15" s="3" t="s">
+      <c r="BE15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BD15" s="3" t="s">
+      <c r="BF15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BE15" s="3" t="s">
+      <c r="BG15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BF15" s="3" t="s">
+      <c r="BH15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BG15" s="3" t="s">
+      <c r="BI15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BH15" s="3" t="s">
+      <c r="BJ15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BI15" s="3" t="s">
+      <c r="BK15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BJ15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK15" s="3" t="s">
+      <c r="BL15" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="3"/>
+      <c r="BO15" s="3"/>
+      <c r="BP15" s="3"/>
+      <c r="BQ15" s="3"/>
+      <c r="BR15" s="3"/>
+      <c r="BS15" s="3"/>
+      <c r="BT15" s="3"/>
+      <c r="BU15" s="3"/>
+      <c r="BV15" s="3"/>
+      <c r="BW15" s="3"/>
+      <c r="BX15" s="3"/>
+      <c r="BY15" s="3"/>
+      <c r="BZ15" s="3"/>
+      <c r="CA15" s="3"/>
+      <c r="CB15" s="3"/>
+      <c r="CC15" s="3"/>
+      <c r="CD15" s="3"/>
+      <c r="CE15" s="3"/>
+      <c r="CF15" s="3"/>
+      <c r="CG15" s="3"/>
+      <c r="CH15" s="3"/>
+      <c r="CI15" s="3"/>
+      <c r="CJ15" s="3"/>
+      <c r="CK15" s="3"/>
+      <c r="CL15" s="3"/>
+      <c r="CM15" s="3"/>
+      <c r="CN15" s="3"/>
+      <c r="CO15" s="3"/>
+      <c r="CP15" s="3"/>
+      <c r="CQ15" s="3"/>
+      <c r="CR15" s="3"/>
+      <c r="CS15" s="3"/>
+      <c r="CT15" s="3"/>
+      <c r="CU15" s="3"/>
+      <c r="CV15" s="3"/>
+      <c r="CW15" s="3"/>
+      <c r="CX15" s="3"/>
+      <c r="CY15" s="3"/>
+      <c r="CZ15" s="3"/>
+      <c r="DA15" s="3"/>
+      <c r="DB15" s="3"/>
+      <c r="DC15" s="3"/>
+      <c r="DD15" s="3"/>
+      <c r="DE15" s="3"/>
+      <c r="DF15" s="3"/>
+      <c r="DG15" s="3"/>
+      <c r="DH15" s="3"/>
+      <c r="DI15" s="3"/>
+      <c r="DJ15" s="3"/>
+      <c r="DK15" s="3"/>
+      <c r="DL15" s="3"/>
+      <c r="DM15" s="3"/>
+      <c r="DN15" s="3"/>
+      <c r="DO15" s="3"/>
+      <c r="DP15" s="3"/>
+      <c r="DQ15" s="3"/>
+      <c r="DR15" s="3"/>
+      <c r="DS15" s="3"/>
+      <c r="DT15" s="3"/>
+      <c r="DU15" s="3"/>
+      <c r="DV15" s="3"/>
+      <c r="DW15" s="3"/>
+      <c r="DX15" s="3"/>
+      <c r="DY15" s="3"/>
+      <c r="DZ15" s="3"/>
+      <c r="EA15" s="3"/>
+      <c r="EB15" s="3"/>
+      <c r="EC15" s="3"/>
+      <c r="ED15" s="3"/>
+      <c r="EE15" s="3"/>
+      <c r="EF15" s="3"/>
+      <c r="EG15" s="3"/>
+      <c r="EH15" s="3"/>
+      <c r="EI15" s="3"/>
+      <c r="EJ15" s="3"/>
+      <c r="EK15" s="3"/>
+      <c r="EL15" s="3"/>
+      <c r="EM15" s="3"/>
+      <c r="EN15" s="3"/>
+      <c r="EO15" s="3"/>
+      <c r="EP15" s="3"/>
+      <c r="EQ15" s="3"/>
+      <c r="ER15" s="3"/>
+      <c r="ES15" s="3"/>
+      <c r="ET15" s="3"/>
+      <c r="EU15" s="3"/>
+      <c r="EV15" s="3"/>
+      <c r="EW15" s="3"/>
+      <c r="EX15" s="3"/>
+      <c r="EY15" s="3"/>
+      <c r="EZ15" s="3"/>
+      <c r="FA15" s="3"/>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4.0189999999999948E-2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3.6600929230891754E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3.5109175516048197E-2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3.1027955881041347E-2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3.1847763733111822E-2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>3.2468751543896168E-2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>3.4698695218434938E-2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>3.3573046990444277E-2</v>
+      </c>
+      <c r="J16" s="4">
+        <v>3.3272337327588053E-2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3.1591808806998634E-2</v>
+      </c>
+      <c r="L16" s="4">
+        <v>3.6688257601740437E-2</v>
+      </c>
+      <c r="M16" s="4">
+        <v>3.7604661411154039E-2</v>
+      </c>
+      <c r="N16" s="4">
+        <v>3.5860976373024656E-2</v>
+      </c>
+      <c r="O16" s="4">
+        <v>3.8003264683745819E-2</v>
+      </c>
+      <c r="P16" s="4">
+        <v>3.5756365937971823E-2</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>3.2625542467451973E-2</v>
+      </c>
+      <c r="R16" s="4">
+        <v>2.5983458908752866E-2</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1.8256204407734788E-2</v>
+      </c>
+      <c r="T16" s="4">
+        <v>1.6436745042465839E-2</v>
+      </c>
+      <c r="U16" s="4">
+        <v>2.1838604333041189E-2</v>
+      </c>
+      <c r="V16" s="4">
+        <v>2.5397039419826406E-2</v>
+      </c>
+      <c r="W16" s="4">
+        <v>2.7047831651062726E-2</v>
+      </c>
+      <c r="X16" s="4">
+        <v>2.8672317743161368E-2</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>3.1361430150415703E-2</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>3.0965496688104999E-2</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>3.6280045013417528E-2</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>3.7232356416241563E-2</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>3.8917723952325955E-2</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>3.8168816977551367E-2</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>3.886459120881236E-2</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>4.0904578258047275E-2</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>3.5723136163479996E-2</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>3.4866892638153457E-2</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>3.4348143305191536E-2</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>3.3499380866408801E-2</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>3.8837242225473023E-2</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>4.5353700329484603E-2</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>4.3994538349263257E-2</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>4.5775475476416583E-2</v>
+      </c>
+      <c r="AO16" s="4">
+        <v>4.8461538461538556E-2</v>
+      </c>
+      <c r="AP16" s="4">
+        <v>5.706950094864105E-2</v>
+      </c>
+      <c r="AQ16" s="4">
+        <v>6.3793495565158009E-2</v>
+      </c>
+      <c r="AR16" s="4">
+        <v>6.8306840168443461E-2</v>
+      </c>
+      <c r="AS16" s="4">
+        <v>6.7735731659030574E-2</v>
+      </c>
+      <c r="AT16" s="4">
+        <v>6.5540819776834347E-2</v>
+      </c>
+      <c r="AU16" s="4">
+        <v>6.71457212988813E-2</v>
+      </c>
+      <c r="AV16" s="4">
+        <v>6.693292677223539E-2</v>
+      </c>
+      <c r="AW16" s="4">
+        <v>6.5475081075036412E-2</v>
+      </c>
+      <c r="AX16" s="4">
+        <v>6.9116001491980716E-2</v>
+      </c>
+      <c r="AY16" s="4">
+        <v>6.4766430606732817E-2</v>
+      </c>
+      <c r="AZ16" s="4">
+        <v>6.5762787208623941E-2</v>
+      </c>
+      <c r="BA16" s="4">
+        <v>6.7675711682039674E-2</v>
+      </c>
+      <c r="BB16" s="4">
+        <v>6.8240573180189834E-2</v>
+      </c>
+      <c r="BC16" s="4">
+        <v>6.9432161544697335E-2</v>
+      </c>
+      <c r="BD16" s="4">
+        <v>6.8469658201960826E-2</v>
+      </c>
+      <c r="BE16" s="4">
+        <v>7.4724384812176803E-2</v>
+      </c>
+      <c r="BF16" s="4">
+        <v>7.7716441254945368E-2</v>
+      </c>
+      <c r="BG16" s="4">
+        <v>7.6152873710631841E-2</v>
+      </c>
+      <c r="BH16" s="4">
+        <v>7.4457868790985593E-2</v>
+      </c>
+      <c r="BI16" s="4">
+        <v>7.0191696193331543E-2</v>
+      </c>
+      <c r="BJ16" s="4">
+        <v>6.8429560992350646E-2</v>
+      </c>
+      <c r="BK16" s="4">
+        <v>7.3863277620933143E-2</v>
+      </c>
+      <c r="BL16" s="4">
+        <v>7.4319464921428269E-2</v>
+      </c>
+      <c r="BM16" s="4"/>
+      <c r="BN16" s="4"/>
+      <c r="BO16" s="4"/>
+      <c r="BP16" s="4"/>
+      <c r="BQ16" s="4"/>
+      <c r="BR16" s="4"/>
+      <c r="BS16" s="4"/>
+      <c r="BT16" s="4"/>
+      <c r="BU16" s="4"/>
+      <c r="BV16" s="4"/>
+      <c r="BW16" s="4"/>
+      <c r="BX16" s="4"/>
+      <c r="BY16" s="4"/>
+      <c r="BZ16" s="4"/>
+      <c r="CA16" s="4"/>
+      <c r="CB16" s="4"/>
+      <c r="CC16" s="4"/>
+      <c r="CD16" s="4"/>
+      <c r="CE16" s="4"/>
+      <c r="CF16" s="4"/>
+      <c r="CG16" s="4"/>
+      <c r="CH16" s="4"/>
+      <c r="CI16" s="4"/>
+      <c r="CJ16" s="4"/>
+      <c r="CK16" s="4"/>
+      <c r="CL16" s="4"/>
+      <c r="CM16" s="4"/>
+      <c r="CN16" s="4"/>
+      <c r="CO16" s="4"/>
+      <c r="CP16" s="4"/>
+      <c r="CQ16" s="4"/>
+      <c r="CR16" s="4"/>
+      <c r="CS16" s="4"/>
+      <c r="CT16" s="4"/>
+      <c r="CU16" s="4"/>
+      <c r="CV16" s="4"/>
+      <c r="CW16" s="4"/>
+      <c r="CX16" s="4"/>
+      <c r="CY16" s="4"/>
+      <c r="CZ16" s="4"/>
+      <c r="DA16" s="4"/>
+      <c r="DB16" s="4"/>
+      <c r="DC16" s="4"/>
+      <c r="DD16" s="4"/>
+      <c r="DE16" s="4"/>
+      <c r="DF16" s="4"/>
+      <c r="DG16" s="4"/>
+      <c r="DH16" s="4"/>
+      <c r="DI16" s="4"/>
+      <c r="DJ16" s="4"/>
+      <c r="DK16" s="4"/>
+      <c r="DL16" s="4"/>
+      <c r="DM16" s="4"/>
+      <c r="DN16" s="4"/>
+      <c r="DO16" s="4"/>
+      <c r="DP16" s="4"/>
+      <c r="DQ16" s="4"/>
+      <c r="DR16" s="4"/>
+      <c r="DS16" s="4"/>
+      <c r="DT16" s="4"/>
+      <c r="DU16" s="4"/>
+      <c r="DV16" s="4"/>
+      <c r="DW16" s="4"/>
+      <c r="DX16" s="4"/>
+      <c r="DY16" s="4"/>
+      <c r="DZ16" s="4"/>
+      <c r="EA16" s="4"/>
+      <c r="EB16" s="4"/>
+      <c r="EC16" s="4"/>
+      <c r="ED16" s="4"/>
+      <c r="EE16" s="4"/>
+      <c r="EF16" s="4"/>
+      <c r="EG16" s="4"/>
+      <c r="EH16" s="4"/>
+      <c r="EI16" s="4"/>
+      <c r="EJ16" s="4"/>
+      <c r="EK16" s="4"/>
+      <c r="EL16" s="4"/>
+      <c r="EM16" s="4"/>
+      <c r="EN16" s="4"/>
+      <c r="EO16" s="4"/>
+      <c r="EP16" s="4"/>
+      <c r="EQ16" s="4"/>
+      <c r="ER16" s="4"/>
+      <c r="ES16" s="4"/>
+      <c r="ET16" s="4"/>
+      <c r="EU16" s="4"/>
+      <c r="EV16" s="4"/>
+      <c r="EW16" s="4"/>
+      <c r="EX16" s="4"/>
+      <c r="EY16" s="4"/>
+      <c r="EZ16" s="4"/>
+      <c r="FA16" s="4"/>
+    </row>
+    <row r="17" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B17" s="4">
         <v>6.0559999999999947E-2</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C17" s="4">
         <v>5.5225233300467025E-2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D17" s="4">
         <v>5.0235944718696635E-2</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="4">
         <v>4.4296122487208045E-2</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F17" s="4">
         <v>4.8791537809994567E-2</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G17" s="4">
         <v>5.7206493763611199E-2</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H17" s="4">
         <v>6.0931935100910328E-2</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I17" s="4">
         <v>5.525671409887023E-2</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J17" s="4">
         <v>4.7659334461364944E-2</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K17" s="4">
         <v>4.1315850455739156E-2</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L17" s="4">
         <v>5.2270281276360686E-2</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M17" s="4">
         <v>5.773281542891362E-2</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N17" s="4">
         <v>6.3629587322484804E-2</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O17" s="4">
         <v>7.0264646975324307E-2</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P17" s="4">
         <v>7.3840625455251718E-2</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q17" s="4">
         <v>7.0010802052389964E-2</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R17" s="4">
         <v>6.9320567895051255E-2</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S17" s="4">
         <v>7.2578003044961426E-2</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T17" s="4">
         <v>6.1400825814344806E-2</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U17" s="4">
         <v>6.0815315744356724E-2</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V17" s="4">
         <v>6.2589243217515467E-2</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W17" s="4">
         <v>6.1163997035854845E-2</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X17" s="4">
         <v>5.6522068717190566E-2</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y17" s="4">
         <v>5.7609744103795935E-2</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="Z17" s="4">
         <v>5.0595911593874998E-2</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AA17" s="4">
         <v>5.8120658411356052E-2</v>
       </c>
-      <c r="AB16" s="4">
+      <c r="AB17" s="4">
         <v>5.846779890920395E-2</v>
       </c>
-      <c r="AC16" s="4">
+      <c r="AC17" s="4">
         <v>6.3658849741323964E-2</v>
       </c>
-      <c r="AD16" s="4">
+      <c r="AD17" s="4">
         <v>6.124633761550613E-2</v>
       </c>
-      <c r="AE16" s="4">
+      <c r="AE17" s="4">
         <v>6.2884483937115432E-2</v>
       </c>
-      <c r="AF16" s="4">
+      <c r="AF17" s="4">
         <v>6.7223677952983341E-2</v>
       </c>
-      <c r="AG16" s="4">
+      <c r="AG17" s="4">
         <v>6.5512356953814965E-2</v>
       </c>
-      <c r="AH16" s="4">
+      <c r="AH17" s="4">
         <v>6.281152828700054E-2</v>
       </c>
-      <c r="AI16" s="4">
+      <c r="AI17" s="4">
         <v>6.1577976207034091E-2</v>
       </c>
-      <c r="AJ16" s="4">
+      <c r="AJ17" s="4">
         <v>5.680561698363551E-2</v>
       </c>
-      <c r="AK16" s="4">
+      <c r="AK17" s="4">
         <v>5.6171153477240221E-2</v>
       </c>
-      <c r="AL16" s="4">
+      <c r="AL17" s="4">
         <v>5.9104064655878474E-2</v>
       </c>
-      <c r="AM16" s="4">
+      <c r="AM17" s="4">
         <v>5.4759676965143722E-2</v>
       </c>
-      <c r="AN16" s="4">
+      <c r="AN17" s="4">
         <v>5.0738007380073835E-2</v>
       </c>
-      <c r="AO16" s="4">
+      <c r="AO17" s="4">
         <v>5.1521952714457031E-2</v>
       </c>
-      <c r="AP16" s="4">
+      <c r="AP17" s="4">
         <v>4.9910375701456511E-2</v>
       </c>
-      <c r="AQ16" s="4">
+      <c r="AQ17" s="4">
         <v>5.2286407330877749E-2</v>
       </c>
-      <c r="AR16" s="4">
+      <c r="AR17" s="4">
         <v>6.2891722498378932E-2</v>
       </c>
-      <c r="AS16" s="4">
+      <c r="AS17" s="4">
         <v>7.0473625140291762E-2</v>
       </c>
-      <c r="AT16" s="4">
+      <c r="AT17" s="4">
         <v>7.3746920492721246E-2</v>
       </c>
-      <c r="AU16" s="4">
+      <c r="AU17" s="4">
         <v>7.5983025354533718E-2</v>
       </c>
-      <c r="AV16" s="4">
+      <c r="AV17" s="4">
         <v>7.8754069543224725E-2</v>
       </c>
-      <c r="AW16" s="4">
+      <c r="AW17" s="4">
         <v>7.8703124161733973E-2</v>
       </c>
-      <c r="AX16" s="4">
+      <c r="AX17" s="4">
         <v>9.0879718547504096E-2</v>
       </c>
-      <c r="AY16" s="4">
+      <c r="AY17" s="4">
         <v>8.9742217464989782E-2</v>
       </c>
-      <c r="AZ16" s="4">
+      <c r="AZ17" s="4">
         <v>9.1618610280506996E-2</v>
       </c>
-      <c r="BA16" s="4">
+      <c r="BA17" s="4">
         <v>9.099381362777037E-2</v>
       </c>
-      <c r="BB16" s="4">
+      <c r="BB17" s="4">
         <v>9.3540394655340142E-2</v>
       </c>
-      <c r="BC16" s="4">
+      <c r="BC17" s="4">
         <v>9.1371184424965834E-2</v>
       </c>
-      <c r="BD16" s="4">
+      <c r="BD17" s="4">
         <v>8.7506990074094793E-2</v>
       </c>
-      <c r="BE16" s="4">
+      <c r="BE17" s="4">
         <v>9.4902831954380762E-2</v>
       </c>
-      <c r="BF16" s="4">
+      <c r="BF17" s="4">
         <v>0.10523833644827185</v>
       </c>
-      <c r="BG16" s="4">
+      <c r="BG17" s="4">
         <v>0.10992418419397665</v>
       </c>
-      <c r="BH16" s="4">
+      <c r="BH17" s="4">
         <v>0.11194231557287715</v>
       </c>
-      <c r="BI16" s="4">
+      <c r="BI17" s="4">
         <v>0.11100347696725432</v>
       </c>
-      <c r="BJ16" s="4">
+      <c r="BJ17" s="4">
         <v>0.10780455107933462</v>
       </c>
-      <c r="BK16" s="4">
+      <c r="BK17" s="4">
         <v>0.11992179762120081</v>
       </c>
+      <c r="BL17" s="4">
+        <v>0.12422317478352207</v>
+      </c>
+      <c r="BM17" s="4"/>
+      <c r="BN17" s="4"/>
+      <c r="BO17" s="4"/>
+      <c r="BP17" s="4"/>
+      <c r="BQ17" s="4"/>
+      <c r="BR17" s="4"/>
+      <c r="BS17" s="4"/>
+      <c r="BT17" s="4"/>
+      <c r="BU17" s="4"/>
+      <c r="BV17" s="4"/>
+      <c r="BW17" s="4"/>
+      <c r="BX17" s="4"/>
+      <c r="BY17" s="4"/>
+      <c r="BZ17" s="4"/>
+      <c r="CA17" s="4"/>
+      <c r="CB17" s="4"/>
+      <c r="CC17" s="4"/>
+      <c r="CD17" s="4"/>
+      <c r="CE17" s="4"/>
+      <c r="CF17" s="4"/>
+      <c r="CG17" s="4"/>
+      <c r="CH17" s="4"/>
+      <c r="CI17" s="4"/>
+      <c r="CJ17" s="4"/>
+      <c r="CK17" s="4"/>
+      <c r="CL17" s="4"/>
+      <c r="CM17" s="4"/>
+      <c r="CN17" s="4"/>
+      <c r="CO17" s="4"/>
+      <c r="CP17" s="4"/>
+      <c r="CQ17" s="4"/>
+      <c r="CR17" s="4"/>
+      <c r="CS17" s="4"/>
+      <c r="CT17" s="4"/>
+      <c r="CU17" s="4"/>
+      <c r="CV17" s="4"/>
+      <c r="CW17" s="4"/>
+      <c r="CX17" s="4"/>
+      <c r="CY17" s="4"/>
+      <c r="CZ17" s="4"/>
+      <c r="DA17" s="4"/>
+      <c r="DB17" s="4"/>
+      <c r="DC17" s="4"/>
+      <c r="DD17" s="4"/>
+      <c r="DE17" s="4"/>
+      <c r="DF17" s="4"/>
+      <c r="DG17" s="4"/>
+      <c r="DH17" s="4"/>
+      <c r="DI17" s="4"/>
+      <c r="DJ17" s="4"/>
+      <c r="DK17" s="4"/>
+      <c r="DL17" s="4"/>
+      <c r="DM17" s="4"/>
+      <c r="DN17" s="4"/>
+      <c r="DO17" s="4"/>
+      <c r="DP17" s="4"/>
+      <c r="DQ17" s="4"/>
+      <c r="DR17" s="4"/>
+      <c r="DS17" s="4"/>
+      <c r="DT17" s="4"/>
+      <c r="DU17" s="4"/>
+      <c r="DV17" s="4"/>
+      <c r="DW17" s="4"/>
+      <c r="DX17" s="4"/>
+      <c r="DY17" s="4"/>
+      <c r="DZ17" s="4"/>
+      <c r="EA17" s="4"/>
+      <c r="EB17" s="4"/>
+      <c r="EC17" s="4"/>
+      <c r="ED17" s="4"/>
+      <c r="EE17" s="4"/>
+      <c r="EF17" s="4"/>
+      <c r="EG17" s="4"/>
+      <c r="EH17" s="4"/>
+      <c r="EI17" s="4"/>
+      <c r="EJ17" s="4"/>
+      <c r="EK17" s="4"/>
+      <c r="EL17" s="4"/>
+      <c r="EM17" s="4"/>
+      <c r="EN17" s="4"/>
+      <c r="EO17" s="4"/>
+      <c r="EP17" s="4"/>
+      <c r="EQ17" s="4"/>
+      <c r="ER17" s="4"/>
+      <c r="ES17" s="4"/>
+      <c r="ET17" s="4"/>
+      <c r="EU17" s="4"/>
+      <c r="EV17" s="4"/>
+      <c r="EW17" s="4"/>
+      <c r="EX17" s="4"/>
+      <c r="EY17" s="4"/>
+      <c r="EZ17" s="4"/>
+      <c r="FA17" s="4"/>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4">
-        <v>3.1789999999999985E-2</v>
-      </c>
-      <c r="C17" s="4">
-        <v>3.342059599394176E-2</v>
-      </c>
-      <c r="D17" s="4">
-        <v>3.8734156938910358E-2</v>
-      </c>
-      <c r="E17" s="4">
-        <v>3.9546100426281372E-2</v>
-      </c>
-      <c r="F17" s="4">
-        <v>3.3694320185707172E-2</v>
-      </c>
-      <c r="G17" s="4">
-        <v>3.0604734434056091E-2</v>
-      </c>
-      <c r="H17" s="4">
-        <v>2.580307503925261E-2</v>
-      </c>
-      <c r="I17" s="4">
-        <v>2.6969216059300694E-2</v>
-      </c>
-      <c r="J17" s="4">
-        <v>3.9493071041733163E-2</v>
-      </c>
-      <c r="K17" s="4">
-        <v>2.9583783415564557E-2</v>
-      </c>
-      <c r="L17" s="4">
-        <v>3.7158083797073305E-2</v>
-      </c>
-      <c r="M17" s="4">
-        <v>3.4315082032022159E-2</v>
-      </c>
-      <c r="N17" s="4">
-        <v>3.2328713066640313E-2</v>
-      </c>
-      <c r="O17" s="4">
-        <v>2.5926107169072621E-2</v>
-      </c>
-      <c r="P17" s="4">
-        <v>2.3687423687423603E-2</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>1.5623476174686513E-2</v>
-      </c>
-      <c r="R17" s="4">
-        <v>2.0825404260717661E-2</v>
-      </c>
-      <c r="S17" s="4">
-        <v>-3.6284677580640246E-3</v>
-      </c>
-      <c r="T17" s="4">
-        <v>7.553702861895939E-3</v>
-      </c>
-      <c r="U17" s="4">
-        <v>2.1972341961029151E-2</v>
-      </c>
-      <c r="V17" s="4">
-        <v>1.7412182671755039E-2</v>
-      </c>
-      <c r="W17" s="4">
-        <v>1.5588054996059197E-2</v>
-      </c>
-      <c r="X17" s="4">
-        <v>-1.1457621243777805E-3</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>2.120154964053711E-3</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>4.2353579701295274E-3</v>
-      </c>
-      <c r="AA17" s="4">
-        <v>1.5218720579243117E-2</v>
-      </c>
-      <c r="AB17" s="4">
-        <v>9.3200327695051044E-3</v>
-      </c>
-      <c r="AC17" s="4">
-        <v>2.4546137111834287E-2</v>
-      </c>
-      <c r="AD17" s="4">
-        <v>2.9858801985446437E-2</v>
-      </c>
-      <c r="AE17" s="4">
-        <v>3.1925263229006795E-2</v>
-      </c>
-      <c r="AF17" s="4">
-        <v>3.5309973045822174E-2</v>
-      </c>
-      <c r="AG17" s="4">
-        <v>2.9821951336564734E-2</v>
-      </c>
-      <c r="AH17" s="4">
-        <v>3.0685246372647468E-2</v>
-      </c>
-      <c r="AI17" s="4">
-        <v>1.8563502490571704E-2</v>
-      </c>
-      <c r="AJ17" s="4">
-        <v>1.4166075230660047E-2</v>
-      </c>
-      <c r="AK17" s="4">
-        <v>2.2073156748079414E-2</v>
-      </c>
-      <c r="AL17" s="4">
-        <v>2.2677318858584483E-2</v>
-      </c>
-      <c r="AM17" s="4">
-        <v>1.9661527894375475E-2</v>
-      </c>
-      <c r="AN17" s="4">
-        <v>2.1965648854961994E-2</v>
-      </c>
-      <c r="AO17" s="4">
-        <v>2.6310735548300324E-2</v>
-      </c>
-      <c r="AP17" s="4">
-        <v>3.1203097366282684E-2</v>
-      </c>
-      <c r="AQ17" s="4">
-        <v>2.7881325151497771E-2</v>
-      </c>
-      <c r="AR17" s="4">
-        <v>3.5632691458521215E-2</v>
-      </c>
-      <c r="AS17" s="4">
-        <v>3.7875390062123815E-2</v>
-      </c>
-      <c r="AT17" s="4">
-        <v>4.2612791511977166E-2</v>
-      </c>
-      <c r="AU17" s="4">
-        <v>4.3315800063234766E-2</v>
-      </c>
-      <c r="AV17" s="4">
-        <v>5.5965761215322596E-2</v>
-      </c>
-      <c r="AW17" s="4">
-        <v>5.5517088838882067E-2</v>
-      </c>
-      <c r="AX17" s="4">
-        <v>5.4711627547868957E-2</v>
-      </c>
-      <c r="AY17" s="4">
-        <v>4.3375175670895327E-2</v>
-      </c>
-      <c r="AZ17" s="4">
-        <v>4.6828746586199843E-2</v>
-      </c>
-      <c r="BA17" s="4">
-        <v>3.2930587395242128E-2</v>
-      </c>
-      <c r="BB17" s="4">
-        <v>3.072445322077999E-2</v>
-      </c>
-      <c r="BC17" s="4">
-        <v>3.4715922375496922E-2</v>
-      </c>
-      <c r="BD17" s="4">
-        <v>3.2199576003272945E-2</v>
-      </c>
-      <c r="BE17" s="4">
-        <v>3.4718338739141652E-2</v>
-      </c>
-      <c r="BF17" s="4">
-        <v>3.0180544327674586E-2</v>
-      </c>
-      <c r="BG17" s="4">
-        <v>4.0310681773892743E-2</v>
-      </c>
-      <c r="BH17" s="4">
-        <v>3.7920352330832685E-2</v>
-      </c>
-      <c r="BI17" s="4">
-        <v>3.5218114844524084E-2</v>
-      </c>
-      <c r="BJ17" s="4">
-        <v>3.9153389711722664E-2</v>
-      </c>
-      <c r="BK17" s="4">
-        <v>4.628338868877746E-2</v>
-      </c>
+    <row r="18" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-1.3630000000000031E-2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-2.3239884048762982E-2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-2.3759850499817103E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-2.0579981290926086E-2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-2.697993147332356E-2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>-2.3675553591594123E-2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-1.181857741909953E-2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>9.48344635021936E-3</v>
+      </c>
+      <c r="J18" s="4">
+        <v>6.6128435227148508E-3</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2.3970172229385911E-2</v>
+      </c>
+      <c r="L18" s="4">
+        <v>2.3399986023899144E-2</v>
+      </c>
+      <c r="M18" s="4">
+        <v>-3.0016509079966447E-5</v>
+      </c>
+      <c r="N18" s="4">
+        <v>-3.1606005140976778E-2</v>
+      </c>
+      <c r="O18" s="4">
+        <v>-1.1818988111253925E-2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>-1.0692793554483493E-2</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>-2.0921335777477346E-3</v>
+      </c>
+      <c r="R18" s="4">
+        <v>-2.0630886530123016E-3</v>
+      </c>
+      <c r="S18" s="4">
+        <v>9.3113193514799963E-3</v>
+      </c>
+      <c r="T18" s="4">
+        <v>1.8544132466557395E-2</v>
+      </c>
+      <c r="U18" s="4">
+        <v>-7.5479943191403276E-4</v>
+      </c>
+      <c r="V18" s="4">
+        <v>6.8526482009314549E-3</v>
+      </c>
+      <c r="W18" s="4">
+        <v>-4.5433758177081396E-3</v>
+      </c>
+      <c r="X18" s="4">
+        <v>-1.7499494234270996E-3</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>6.7818835605912842E-3</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>-5.2819935723916744E-3</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>1.7034078320171453E-2</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>1.431117953288652E-2</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>1.5442618006333841E-2</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>1.9105781033060376E-2</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>1.4392903121982492E-2</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>2.5240949988490469E-2</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>-4.1291699183055863E-3</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>1.0803236001510674E-2</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>2.391667236111239E-2</v>
+      </c>
+      <c r="AJ18" s="4">
+        <v>2.3577037506706366E-2</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>2.1682575894018452E-2</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>5.6113859596575111E-2</v>
+      </c>
+      <c r="AM18" s="4">
+        <v>3.3420397131936896E-2</v>
+      </c>
+      <c r="AN18" s="4">
+        <v>4.4258998592398902E-2</v>
+      </c>
+      <c r="AO18" s="4">
+        <v>4.9038595930755102E-2</v>
+      </c>
+      <c r="AP18" s="4">
+        <v>5.5558884627676663E-2</v>
+      </c>
+      <c r="AQ18" s="4">
+        <v>3.7383085750215983E-2</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>1.8943692710606808E-2</v>
+      </c>
+      <c r="AS18" s="4">
+        <v>4.2251001361653051E-2</v>
+      </c>
+      <c r="AT18" s="4">
+        <v>3.0617176788550138E-2</v>
+      </c>
+      <c r="AU18" s="4">
+        <v>5.203287758791153E-2</v>
+      </c>
+      <c r="AV18" s="4">
+        <v>5.9997770729680822E-2</v>
+      </c>
+      <c r="AW18" s="4">
+        <v>4.0956499618417519E-2</v>
+      </c>
+      <c r="AX18" s="4">
+        <v>5.0287414896653004E-2</v>
+      </c>
+      <c r="AY18" s="4">
+        <v>4.1462220312390663E-2</v>
+      </c>
+      <c r="AZ18" s="4">
+        <v>5.7854953218768435E-2</v>
+      </c>
+      <c r="BA18" s="4">
+        <v>5.4474708171206254E-2</v>
+      </c>
+      <c r="BB18" s="4">
+        <v>6.0872913231911241E-2</v>
+      </c>
+      <c r="BC18" s="4">
+        <v>6.3943284913985377E-2</v>
+      </c>
+      <c r="BD18" s="4">
+        <v>5.0722869219730793E-2</v>
+      </c>
+      <c r="BE18" s="4">
+        <v>6.2958150238560551E-2</v>
+      </c>
+      <c r="BF18" s="4">
+        <v>5.7420972420235028E-2</v>
+      </c>
+      <c r="BG18" s="4">
+        <v>3.0346366158510385E-2</v>
+      </c>
+      <c r="BH18" s="4">
+        <v>2.724621659741544E-2</v>
+      </c>
+      <c r="BI18" s="4">
+        <v>2.9370574582064268E-2</v>
+      </c>
+      <c r="BJ18" s="4">
+        <v>1.6947992254581656E-2</v>
+      </c>
+      <c r="BK18" s="4">
+        <v>1.8472798243474031E-2</v>
+      </c>
+      <c r="BL18" s="4">
+        <v>2.0575378868113559E-2</v>
+      </c>
+      <c r="BM18" s="4"/>
+      <c r="BN18" s="4"/>
+      <c r="BO18" s="4"/>
+      <c r="BP18" s="4"/>
+      <c r="BQ18" s="4"/>
+      <c r="BR18" s="4"/>
+      <c r="BS18" s="4"/>
+      <c r="BT18" s="4"/>
+      <c r="BU18" s="4"/>
+      <c r="BV18" s="4"/>
+      <c r="BW18" s="4"/>
+      <c r="BX18" s="4"/>
+      <c r="BY18" s="4"/>
+      <c r="BZ18" s="4"/>
+      <c r="CA18" s="4"/>
+      <c r="CB18" s="4"/>
+      <c r="CC18" s="4"/>
+      <c r="CD18" s="4"/>
+      <c r="CE18" s="4"/>
+      <c r="CF18" s="4"/>
+      <c r="CG18" s="4"/>
+      <c r="CH18" s="4"/>
+      <c r="CI18" s="4"/>
+      <c r="CJ18" s="4"/>
+      <c r="CK18" s="4"/>
+      <c r="CL18" s="4"/>
+      <c r="CM18" s="4"/>
+      <c r="CN18" s="4"/>
+      <c r="CO18" s="4"/>
+      <c r="CP18" s="4"/>
+      <c r="CQ18" s="4"/>
+      <c r="CR18" s="4"/>
+      <c r="CS18" s="4"/>
+      <c r="CT18" s="4"/>
+      <c r="CU18" s="4"/>
+      <c r="CV18" s="4"/>
+      <c r="CW18" s="4"/>
+      <c r="CX18" s="4"/>
+      <c r="CY18" s="4"/>
+      <c r="CZ18" s="4"/>
+      <c r="DA18" s="4"/>
+      <c r="DB18" s="4"/>
+      <c r="DC18" s="4"/>
+      <c r="DD18" s="4"/>
+      <c r="DE18" s="4"/>
+      <c r="DF18" s="4"/>
+      <c r="DG18" s="4"/>
+      <c r="DH18" s="4"/>
+      <c r="DI18" s="4"/>
+      <c r="DJ18" s="4"/>
+      <c r="DK18" s="4"/>
+      <c r="DL18" s="4"/>
+      <c r="DM18" s="4"/>
+      <c r="DN18" s="4"/>
+      <c r="DO18" s="4"/>
+      <c r="DP18" s="4"/>
+      <c r="DQ18" s="4"/>
+      <c r="DR18" s="4"/>
+      <c r="DS18" s="4"/>
+      <c r="DT18" s="4"/>
+      <c r="DU18" s="4"/>
+      <c r="DV18" s="4"/>
+      <c r="DW18" s="4"/>
+      <c r="DX18" s="4"/>
+      <c r="DY18" s="4"/>
+      <c r="DZ18" s="4"/>
+      <c r="EA18" s="4"/>
+      <c r="EB18" s="4"/>
+      <c r="EC18" s="4"/>
+      <c r="ED18" s="4"/>
+      <c r="EE18" s="4"/>
+      <c r="EF18" s="4"/>
+      <c r="EG18" s="4"/>
+      <c r="EH18" s="4"/>
+      <c r="EI18" s="4"/>
+      <c r="EJ18" s="4"/>
+      <c r="EK18" s="4"/>
+      <c r="EL18" s="4"/>
+      <c r="EM18" s="4"/>
+      <c r="EN18" s="4"/>
+      <c r="EO18" s="4"/>
+      <c r="EP18" s="4"/>
+      <c r="EQ18" s="4"/>
+      <c r="ER18" s="4"/>
+      <c r="ES18" s="4"/>
+      <c r="ET18" s="4"/>
+      <c r="EU18" s="4"/>
+      <c r="EV18" s="4"/>
+      <c r="EW18" s="4"/>
+      <c r="EX18" s="4"/>
+      <c r="EY18" s="4"/>
+      <c r="EZ18" s="4"/>
+      <c r="FA18" s="4"/>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2.0450000000000079E-2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.5649202050585176E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1.4615799030269105E-2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.0001984520738194E-2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>7.8888833967674099E-3</v>
+      </c>
+      <c r="G19" s="4">
+        <v>7.5872683860529477E-3</v>
+      </c>
+      <c r="H19" s="4">
+        <v>9.2788395027569859E-3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>8.6280084503149723E-3</v>
+      </c>
+      <c r="J19" s="4">
+        <v>9.8287857107615118E-3</v>
+      </c>
+      <c r="K19" s="4">
+        <v>8.1578895637985926E-3</v>
+      </c>
+      <c r="L19" s="4">
+        <v>8.8398007599472805E-3</v>
+      </c>
+      <c r="M19" s="4">
+        <v>7.1424372464876651E-3</v>
+      </c>
+      <c r="N19" s="4">
+        <v>5.5404098144402614E-3</v>
+      </c>
+      <c r="O19" s="4">
+        <v>3.926841864226871E-3</v>
+      </c>
+      <c r="P19" s="4">
+        <v>2.1096020921029801E-3</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>1.1061410232773294E-3</v>
+      </c>
+      <c r="R19" s="4">
+        <v>1.4157163912806858E-3</v>
+      </c>
+      <c r="S19" s="4">
+        <v>-2.3241400681750513E-4</v>
+      </c>
+      <c r="T19" s="4">
+        <v>8.5177226706933951E-4</v>
+      </c>
+      <c r="U19" s="4">
+        <v>6.9618356039868878E-4</v>
+      </c>
+      <c r="V19" s="4">
+        <v>3.4088047878213512E-3</v>
+      </c>
+      <c r="W19" s="4">
+        <v>7.7870125835015624E-3</v>
+      </c>
+      <c r="X19" s="4">
+        <v>1.3797743605745483E-2</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>1.4772085046674155E-2</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>2.0971140183252412E-2</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>2.8927042849412166E-2</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>2.9105497595846685E-2</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>2.8215506739497798E-2</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>2.6747619000912159E-2</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>2.9895322307413652E-2</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>3.0762603170251701E-2</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>3.0928238656383389E-2</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>3.1163577019671429E-2</v>
+      </c>
+      <c r="AI19" s="4">
+        <v>3.1811800491362119E-2</v>
+      </c>
+      <c r="AJ19" s="4">
+        <v>3.352718473127525E-2</v>
+      </c>
+      <c r="AK19" s="4">
+        <v>3.9875480324918611E-2</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>4.6566769673293873E-2</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>4.9461321945064585E-2</v>
+      </c>
+      <c r="AN19" s="4">
+        <v>5.2464105549088202E-2</v>
+      </c>
+      <c r="AO19" s="4">
+        <v>5.9888538890235044E-2</v>
+      </c>
+      <c r="AP19" s="4">
+        <v>6.0218448012084203E-2</v>
+      </c>
+      <c r="AQ19" s="4">
+        <v>6.2495156915923999E-2</v>
+      </c>
+      <c r="AR19" s="4">
+        <v>6.2484284636660892E-2</v>
+      </c>
+      <c r="AS19" s="4">
+        <v>6.2525967939860649E-2</v>
+      </c>
+      <c r="AT19" s="4">
+        <v>6.1497481035381218E-2</v>
+      </c>
+      <c r="AU19" s="4">
+        <v>6.2836002081045228E-2</v>
+      </c>
+      <c r="AV19" s="4">
+        <v>6.5125807940904945E-2</v>
+      </c>
+      <c r="AW19" s="4">
+        <v>6.9731712469512708E-2</v>
+      </c>
+      <c r="AX19" s="4">
+        <v>7.1305850170370055E-2</v>
+      </c>
+      <c r="AY19" s="4">
+        <v>5.615108773607469E-2</v>
+      </c>
+      <c r="AZ19" s="4">
+        <v>5.7443698105275276E-2</v>
+      </c>
+      <c r="BA19" s="4">
+        <v>6.2564494553793315E-2</v>
+      </c>
+      <c r="BB19" s="4">
+        <v>6.7338555598012828E-2</v>
+      </c>
+      <c r="BC19" s="4">
+        <v>6.8390127025176772E-2</v>
+      </c>
+      <c r="BD19" s="4">
+        <v>7.0536384274166863E-2</v>
+      </c>
+      <c r="BE19" s="4">
+        <v>7.1250901910150821E-2</v>
+      </c>
+      <c r="BF19" s="4">
+        <v>6.5646322971948612E-2</v>
+      </c>
+      <c r="BG19" s="4">
+        <v>5.3290499362214749E-2</v>
+      </c>
+      <c r="BH19" s="4">
+        <v>4.8999244712990997E-2</v>
+      </c>
+      <c r="BI19" s="4">
+        <v>4.1658091193144564E-2</v>
+      </c>
+      <c r="BJ19" s="4">
+        <v>4.2182770339282083E-2</v>
+      </c>
+      <c r="BK19" s="4">
+        <v>4.4337162199655999E-2</v>
+      </c>
+      <c r="BL19" s="4">
+        <v>4.1884816753926746E-2</v>
+      </c>
+      <c r="BM19" s="4"/>
+      <c r="BN19" s="4"/>
+      <c r="BO19" s="4"/>
+      <c r="BP19" s="4"/>
+      <c r="BQ19" s="4"/>
+      <c r="BR19" s="4"/>
+      <c r="BS19" s="4"/>
+      <c r="BT19" s="4"/>
+      <c r="BU19" s="4"/>
+      <c r="BV19" s="4"/>
+      <c r="BW19" s="4"/>
+      <c r="BX19" s="4"/>
+      <c r="BY19" s="4"/>
+      <c r="BZ19" s="4"/>
+      <c r="CA19" s="4"/>
+      <c r="CB19" s="4"/>
+      <c r="CC19" s="4"/>
+      <c r="CD19" s="4"/>
+      <c r="CE19" s="4"/>
+      <c r="CF19" s="4"/>
+      <c r="CG19" s="4"/>
+      <c r="CH19" s="4"/>
+      <c r="CI19" s="4"/>
+      <c r="CJ19" s="4"/>
+      <c r="CK19" s="4"/>
+      <c r="CL19" s="4"/>
+      <c r="CM19" s="4"/>
+      <c r="CN19" s="4"/>
+      <c r="CO19" s="4"/>
+      <c r="CP19" s="4"/>
+      <c r="CQ19" s="4"/>
+      <c r="CR19" s="4"/>
+      <c r="CS19" s="4"/>
+      <c r="CT19" s="4"/>
+      <c r="CU19" s="4"/>
+      <c r="CV19" s="4"/>
+      <c r="CW19" s="4"/>
+      <c r="CX19" s="4"/>
+      <c r="CY19" s="4"/>
+      <c r="CZ19" s="4"/>
+      <c r="DA19" s="4"/>
+      <c r="DB19" s="4"/>
+      <c r="DC19" s="4"/>
+      <c r="DD19" s="4"/>
+      <c r="DE19" s="4"/>
+      <c r="DF19" s="4"/>
+      <c r="DG19" s="4"/>
+      <c r="DH19" s="4"/>
+      <c r="DI19" s="4"/>
+      <c r="DJ19" s="4"/>
+      <c r="DK19" s="4"/>
+      <c r="DL19" s="4"/>
+      <c r="DM19" s="4"/>
+      <c r="DN19" s="4"/>
+      <c r="DO19" s="4"/>
+      <c r="DP19" s="4"/>
+      <c r="DQ19" s="4"/>
+      <c r="DR19" s="4"/>
+      <c r="DS19" s="4"/>
+      <c r="DT19" s="4"/>
+      <c r="DU19" s="4"/>
+      <c r="DV19" s="4"/>
+      <c r="DW19" s="4"/>
+      <c r="DX19" s="4"/>
+      <c r="DY19" s="4"/>
+      <c r="DZ19" s="4"/>
+      <c r="EA19" s="4"/>
+      <c r="EB19" s="4"/>
+      <c r="EC19" s="4"/>
+      <c r="ED19" s="4"/>
+      <c r="EE19" s="4"/>
+      <c r="EF19" s="4"/>
+      <c r="EG19" s="4"/>
+      <c r="EH19" s="4"/>
+      <c r="EI19" s="4"/>
+      <c r="EJ19" s="4"/>
+      <c r="EK19" s="4"/>
+      <c r="EL19" s="4"/>
+      <c r="EM19" s="4"/>
+      <c r="EN19" s="4"/>
+      <c r="EO19" s="4"/>
+      <c r="EP19" s="4"/>
+      <c r="EQ19" s="4"/>
+      <c r="ER19" s="4"/>
+      <c r="ES19" s="4"/>
+      <c r="ET19" s="4"/>
+      <c r="EU19" s="4"/>
+      <c r="EV19" s="4"/>
+      <c r="EW19" s="4"/>
+      <c r="EX19" s="4"/>
+      <c r="EY19" s="4"/>
+      <c r="EZ19" s="4"/>
+      <c r="FA19" s="4"/>
+    </row>
+    <row r="20" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B20" s="4">
         <v>-8.700000000000041E-3</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C20" s="4">
         <v>-1.4317801767214533E-2</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D20" s="4">
         <v>-7.3018770586135151E-3</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E20" s="4">
         <v>-1.6532932295119207E-2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F20" s="4">
         <v>-8.165177859307704E-3</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G20" s="4">
         <v>-2.0094550981533899E-2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H20" s="4">
         <v>-1.1490936585948242E-2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I20" s="4">
         <v>-7.2578635162754424E-3</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J20" s="4">
         <v>1.8398431609107924E-3</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K20" s="4">
         <v>-1.0192244772508796E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L20" s="4">
         <v>-2.7564992459575555E-3</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M20" s="4">
         <v>-3.5854857932635653E-3</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N20" s="4">
         <v>-7.5346171572850951E-3</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O20" s="4">
         <v>4.6403944836435063E-3</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P20" s="4">
         <v>1.4870853127868511E-3</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q20" s="4">
         <v>-5.2020491722215567E-3</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R20" s="4">
         <v>-2.2496068165077654E-3</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S20" s="4">
         <v>-1.6311541485454883E-2</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T20" s="4">
         <v>-8.7019216326367221E-3</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U20" s="4">
         <v>4.488384788014832E-3</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V20" s="4">
         <v>5.6789056296548956E-3</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W20" s="4">
         <v>1.4381986361216903E-2</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X20" s="4">
         <v>2.8758961930728022E-2</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y20" s="4">
         <v>3.7426357840367963E-2</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="Z20" s="4">
         <v>3.5569454251992427E-2</v>
       </c>
-      <c r="AA18" s="4">
+      <c r="AA20" s="4">
         <v>2.8288628332797883E-2</v>
       </c>
-      <c r="AB18" s="4">
+      <c r="AB20" s="4">
         <v>2.4495302818309028E-2</v>
       </c>
-      <c r="AC18" s="4">
+      <c r="AC20" s="4">
         <v>2.6197183098591648E-2</v>
       </c>
-      <c r="AD18" s="4">
+      <c r="AD20" s="4">
         <v>3.5412373724682089E-2</v>
       </c>
-      <c r="AE18" s="4">
+      <c r="AE20" s="4">
         <v>4.0570076043712655E-2</v>
       </c>
-      <c r="AF18" s="4">
+      <c r="AF20" s="4">
         <v>4.7252891031511979E-2</v>
       </c>
-      <c r="AG18" s="4">
+      <c r="AG20" s="4">
         <v>2.5608323207166217E-2</v>
       </c>
-      <c r="AH18" s="4">
+      <c r="AH20" s="4">
         <v>1.2684649967886985E-2</v>
       </c>
-      <c r="AI18" s="4">
+      <c r="AI20" s="4">
         <v>3.3305620386044676E-2</v>
       </c>
-      <c r="AJ18" s="4">
+      <c r="AJ20" s="4">
         <v>3.9168360857678053E-2</v>
       </c>
-      <c r="AK18" s="4">
+      <c r="AK20" s="4">
         <v>4.9804501000110468E-2</v>
       </c>
-      <c r="AL18" s="4">
+      <c r="AL20" s="4">
         <v>5.5070971389343137E-2</v>
       </c>
-      <c r="AM18" s="4">
+      <c r="AM20" s="4">
         <v>4.0433364259419902E-2</v>
       </c>
-      <c r="AN18" s="4">
+      <c r="AN20" s="4">
         <v>4.7067616722308081E-2</v>
       </c>
-      <c r="AO18" s="4">
+      <c r="AO20" s="4">
         <v>4.0134012009384934E-2</v>
       </c>
-      <c r="AP18" s="4">
+      <c r="AP20" s="4">
         <v>5.0550700347180566E-2</v>
       </c>
-      <c r="AQ18" s="4">
+      <c r="AQ20" s="4">
         <v>7.1376540337103833E-2</v>
       </c>
-      <c r="AR18" s="4">
+      <c r="AR20" s="4">
         <v>7.1943754166919227E-2</v>
       </c>
-      <c r="AS18" s="4">
+      <c r="AS20" s="4">
         <v>6.7316788438701369E-2</v>
       </c>
-      <c r="AT18" s="4">
+      <c r="AT20" s="4">
         <v>5.2850403773886612E-2</v>
       </c>
-      <c r="AU18" s="4">
+      <c r="AU20" s="4">
         <v>6.0662765715190803E-2</v>
       </c>
-      <c r="AV18" s="4">
+      <c r="AV20" s="4">
         <v>4.9667249062604224E-2</v>
       </c>
-      <c r="AW18" s="4">
+      <c r="AW20" s="4">
         <v>4.0529765261868356E-2</v>
       </c>
-      <c r="AX18" s="4">
+      <c r="AX20" s="4">
         <v>3.7085021820448816E-2</v>
       </c>
-      <c r="AY18" s="4">
+      <c r="AY20" s="4">
         <v>4.9710057207567715E-2</v>
       </c>
-      <c r="AZ18" s="4">
+      <c r="AZ20" s="4">
         <v>5.6033011091492613E-2</v>
       </c>
-      <c r="BA18" s="4">
+      <c r="BA20" s="4">
         <v>7.7036194659032775E-2</v>
       </c>
-      <c r="BB18" s="4">
+      <c r="BB20" s="4">
         <v>6.9722739981360693E-2</v>
       </c>
-      <c r="BC18" s="4">
+      <c r="BC20" s="4">
         <v>5.6807952532595074E-2</v>
       </c>
-      <c r="BD18" s="4">
+      <c r="BD20" s="4">
         <v>5.0531454821534982E-2</v>
       </c>
-      <c r="BE18" s="4">
+      <c r="BE20" s="4">
         <v>6.6593555083376499E-2</v>
       </c>
-      <c r="BF18" s="4">
+      <c r="BF20" s="4">
         <v>8.0327413984461637E-2</v>
       </c>
-      <c r="BG18" s="4">
+      <c r="BG20" s="4">
         <v>6.2157079431551576E-2</v>
       </c>
-      <c r="BH18" s="4">
+      <c r="BH20" s="4">
         <v>4.8158285306759696E-2</v>
       </c>
-      <c r="BI18" s="4">
+      <c r="BI20" s="4">
         <v>3.9504423423078361E-2</v>
       </c>
-      <c r="BJ18" s="4">
+      <c r="BJ20" s="4">
         <v>4.4962634797003131E-2</v>
       </c>
-      <c r="BK18" s="4">
+      <c r="BK20" s="4">
         <v>4.3464503509377472E-2</v>
       </c>
+      <c r="BL20" s="4">
+        <v>3.7642288803441559E-2</v>
+      </c>
+      <c r="BM20" s="4"/>
+      <c r="BN20" s="4"/>
+      <c r="BO20" s="4"/>
+      <c r="BP20" s="4"/>
+      <c r="BQ20" s="4"/>
+      <c r="BR20" s="4"/>
+      <c r="BS20" s="4"/>
+      <c r="BT20" s="4"/>
+      <c r="BU20" s="4"/>
+      <c r="BV20" s="4"/>
+      <c r="BW20" s="4"/>
+      <c r="BX20" s="4"/>
+      <c r="BY20" s="4"/>
+      <c r="BZ20" s="4"/>
+      <c r="CA20" s="4"/>
+      <c r="CB20" s="4"/>
+      <c r="CC20" s="4"/>
+      <c r="CD20" s="4"/>
+      <c r="CE20" s="4"/>
+      <c r="CF20" s="4"/>
+      <c r="CG20" s="4"/>
+      <c r="CH20" s="4"/>
+      <c r="CI20" s="4"/>
+      <c r="CJ20" s="4"/>
+      <c r="CK20" s="4"/>
+      <c r="CL20" s="4"/>
+      <c r="CM20" s="4"/>
+      <c r="CN20" s="4"/>
+      <c r="CO20" s="4"/>
+      <c r="CP20" s="4"/>
+      <c r="CQ20" s="4"/>
+      <c r="CR20" s="4"/>
+      <c r="CS20" s="4"/>
+      <c r="CT20" s="4"/>
+      <c r="CU20" s="4"/>
+      <c r="CV20" s="4"/>
+      <c r="CW20" s="4"/>
+      <c r="CX20" s="4"/>
+      <c r="CY20" s="4"/>
+      <c r="CZ20" s="4"/>
+      <c r="DA20" s="4"/>
+      <c r="DB20" s="4"/>
+      <c r="DC20" s="4"/>
+      <c r="DD20" s="4"/>
+      <c r="DE20" s="4"/>
+      <c r="DF20" s="4"/>
+      <c r="DG20" s="4"/>
+      <c r="DH20" s="4"/>
+      <c r="DI20" s="4"/>
+      <c r="DJ20" s="4"/>
+      <c r="DK20" s="4"/>
+      <c r="DL20" s="4"/>
+      <c r="DM20" s="4"/>
+      <c r="DN20" s="4"/>
+      <c r="DO20" s="4"/>
+      <c r="DP20" s="4"/>
+      <c r="DQ20" s="4"/>
+      <c r="DR20" s="4"/>
+      <c r="DS20" s="4"/>
+      <c r="DT20" s="4"/>
+      <c r="DU20" s="4"/>
+      <c r="DV20" s="4"/>
+      <c r="DW20" s="4"/>
+      <c r="DX20" s="4"/>
+      <c r="DY20" s="4"/>
+      <c r="DZ20" s="4"/>
+      <c r="EA20" s="4"/>
+      <c r="EB20" s="4"/>
+      <c r="EC20" s="4"/>
+      <c r="ED20" s="4"/>
+      <c r="EE20" s="4"/>
+      <c r="EF20" s="4"/>
+      <c r="EG20" s="4"/>
+      <c r="EH20" s="4"/>
+      <c r="EI20" s="4"/>
+      <c r="EJ20" s="4"/>
+      <c r="EK20" s="4"/>
+      <c r="EL20" s="4"/>
+      <c r="EM20" s="4"/>
+      <c r="EN20" s="4"/>
+      <c r="EO20" s="4"/>
+      <c r="EP20" s="4"/>
+      <c r="EQ20" s="4"/>
+      <c r="ER20" s="4"/>
+      <c r="ES20" s="4"/>
+      <c r="ET20" s="4"/>
+      <c r="EU20" s="4"/>
+      <c r="EV20" s="4"/>
+      <c r="EW20" s="4"/>
+      <c r="EX20" s="4"/>
+      <c r="EY20" s="4"/>
+      <c r="EZ20" s="4"/>
+      <c r="FA20" s="4"/>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="4">
-        <v>6.2769999999999992E-2</v>
-      </c>
-      <c r="C19" s="4">
-        <v>5.5946624834940062E-2</v>
-      </c>
-      <c r="D19" s="4">
-        <v>6.0369903404183578E-2</v>
-      </c>
-      <c r="E19" s="4">
-        <v>5.8693962166364244E-2</v>
-      </c>
-      <c r="F19" s="4">
-        <v>6.4225762076596471E-2</v>
-      </c>
-      <c r="G19" s="4">
-        <v>6.6197671538271052E-2</v>
-      </c>
-      <c r="H19" s="4">
-        <v>6.89091287499628E-2</v>
-      </c>
-      <c r="I19" s="4">
-        <v>6.3817405284909645E-2</v>
-      </c>
-      <c r="J19" s="4">
-        <v>6.4068060607853194E-2</v>
-      </c>
-      <c r="K19" s="4">
-        <v>7.3635655782138709E-2</v>
-      </c>
-      <c r="L19" s="4">
-        <v>7.1204476833957697E-2</v>
-      </c>
-      <c r="M19" s="4">
-        <v>7.4975724108167441E-2</v>
-      </c>
-      <c r="N19" s="4">
-        <v>6.7466339792980001E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>6.9856589675235004E-2</v>
-      </c>
-      <c r="P19" s="4">
-        <v>5.8304856331520272E-2</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>6.4524508153350313E-2</v>
-      </c>
-      <c r="R19" s="4">
-        <v>6.1755052686128797E-2</v>
-      </c>
-      <c r="S19" s="4">
-        <v>6.0641332659116642E-2</v>
-      </c>
-      <c r="T19" s="4">
-        <v>6.0893796104553033E-2</v>
-      </c>
-      <c r="U19" s="4">
-        <v>6.2055875087036583E-2</v>
-      </c>
-      <c r="V19" s="4">
-        <v>5.7363590634283312E-2</v>
-      </c>
-      <c r="W19" s="4">
-        <v>5.4870360714793565E-2</v>
-      </c>
-      <c r="X19" s="4">
-        <v>5.4185698311316699E-2</v>
-      </c>
-      <c r="Y19" s="4">
-        <v>5.2208797432508947E-2</v>
-      </c>
-      <c r="Z19" s="4">
-        <v>4.7140961826171335E-2</v>
-      </c>
-      <c r="AA19" s="4">
-        <v>4.6711045921245642E-2</v>
-      </c>
-      <c r="AB19" s="4">
-        <v>4.92463252504447E-2</v>
-      </c>
-      <c r="AC19" s="4">
-        <v>5.4856292893252778E-2</v>
-      </c>
-      <c r="AD19" s="4">
-        <v>4.7161416622174768E-2</v>
-      </c>
-      <c r="AE19" s="4">
-        <v>4.3882311395275542E-2</v>
-      </c>
-      <c r="AF19" s="4">
-        <v>3.9729634505906164E-2</v>
-      </c>
-      <c r="AG19" s="4">
-        <v>4.021214059877809E-2</v>
-      </c>
-      <c r="AH19" s="4">
-        <v>4.3552780299801697E-2</v>
-      </c>
-      <c r="AI19" s="4">
-        <v>3.440741760763788E-2</v>
-      </c>
-      <c r="AJ19" s="4">
-        <v>3.4989303978185671E-2</v>
-      </c>
-      <c r="AK19" s="4">
-        <v>4.2984753232296669E-2</v>
-      </c>
-      <c r="AL19" s="4">
-        <v>4.3179891913567303E-2</v>
-      </c>
-      <c r="AM19" s="4">
-        <v>4.3169458540222916E-2</v>
-      </c>
-      <c r="AN19" s="4">
-        <v>4.3359225773589749E-2</v>
-      </c>
-      <c r="AO19" s="4">
-        <v>4.5403607707045435E-2</v>
-      </c>
-      <c r="AP19" s="4">
-        <v>4.5301300649873033E-2</v>
-      </c>
-      <c r="AQ19" s="4">
-        <v>4.4032059297106185E-2</v>
-      </c>
-      <c r="AR19" s="4">
-        <v>4.7458846811190059E-2</v>
-      </c>
-      <c r="AS19" s="4">
-        <v>4.9080801458503576E-2</v>
-      </c>
-      <c r="AT19" s="4">
-        <v>5.2115217176658568E-2</v>
-      </c>
-      <c r="AU19" s="4">
-        <v>6.1614228069702515E-2</v>
-      </c>
-      <c r="AV19" s="4">
-        <v>6.0003236129589022E-2</v>
-      </c>
-      <c r="AW19" s="4">
-        <v>6.2886311237900339E-2</v>
-      </c>
-      <c r="AX19" s="4">
-        <v>6.5146872500831288E-2</v>
-      </c>
-      <c r="AY19" s="4">
-        <v>6.9544752254680153E-2</v>
-      </c>
-      <c r="AZ19" s="4">
-        <v>6.6458463460337347E-2</v>
-      </c>
-      <c r="BA19" s="4">
-        <v>6.3650156180276696E-2</v>
-      </c>
-      <c r="BB19" s="4">
-        <v>6.7945185874270786E-2</v>
-      </c>
-      <c r="BC19" s="4">
-        <v>6.2700306245993875E-2</v>
-      </c>
-      <c r="BD19" s="4">
-        <v>7.0796065597160673E-2</v>
-      </c>
-      <c r="BE19" s="4">
-        <v>7.6931990373473536E-2</v>
-      </c>
-      <c r="BF19" s="4">
-        <v>7.3012011825389189E-2</v>
-      </c>
-      <c r="BG19" s="4">
-        <v>7.6110687090647833E-2</v>
-      </c>
-      <c r="BH19" s="4">
-        <v>7.561429965404054E-2</v>
-      </c>
-      <c r="BI19" s="4">
-        <v>6.5848409560135712E-2</v>
-      </c>
-      <c r="BJ19" s="4">
-        <v>7.5036037216616336E-2</v>
-      </c>
-      <c r="BK19" s="4">
-        <v>7.9156822917120673E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="4">
-        <v>-1.3630000000000031E-2</v>
-      </c>
-      <c r="C20" s="4">
-        <v>-2.3239884048762982E-2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>-2.3759850499817103E-2</v>
-      </c>
-      <c r="E20" s="4">
-        <v>-2.0579981290926086E-2</v>
-      </c>
-      <c r="F20" s="4">
-        <v>-2.697993147332356E-2</v>
-      </c>
-      <c r="G20" s="4">
-        <v>-2.3675553591594123E-2</v>
-      </c>
-      <c r="H20" s="4">
-        <v>-1.181857741909953E-2</v>
-      </c>
-      <c r="I20" s="4">
-        <v>9.48344635021936E-3</v>
-      </c>
-      <c r="J20" s="4">
-        <v>6.6128435227148508E-3</v>
-      </c>
-      <c r="K20" s="4">
-        <v>2.3970172229385911E-2</v>
-      </c>
-      <c r="L20" s="4">
-        <v>2.3399986023899144E-2</v>
-      </c>
-      <c r="M20" s="4">
-        <v>-3.0016509079966447E-5</v>
-      </c>
-      <c r="N20" s="4">
-        <v>-3.1606005140976778E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>-1.1818988111253925E-2</v>
-      </c>
-      <c r="P20" s="4">
-        <v>-1.0692793554483493E-2</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>-2.0921335777477346E-3</v>
-      </c>
-      <c r="R20" s="4">
-        <v>-2.0630886530123016E-3</v>
-      </c>
-      <c r="S20" s="4">
-        <v>9.3113193514799963E-3</v>
-      </c>
-      <c r="T20" s="4">
-        <v>1.8544132466557395E-2</v>
-      </c>
-      <c r="U20" s="4">
-        <v>-7.5479943191403276E-4</v>
-      </c>
-      <c r="V20" s="4">
-        <v>6.8526482009314549E-3</v>
-      </c>
-      <c r="W20" s="4">
-        <v>-4.5433758177081396E-3</v>
-      </c>
-      <c r="X20" s="4">
-        <v>-1.7499494234270996E-3</v>
-      </c>
-      <c r="Y20" s="4">
-        <v>6.7818835605912842E-3</v>
-      </c>
-      <c r="Z20" s="4">
-        <v>-5.2819935723916744E-3</v>
-      </c>
-      <c r="AA20" s="4">
-        <v>1.7034078320171453E-2</v>
-      </c>
-      <c r="AB20" s="4">
-        <v>1.431117953288652E-2</v>
-      </c>
-      <c r="AC20" s="4">
-        <v>1.5442618006333841E-2</v>
-      </c>
-      <c r="AD20" s="4">
-        <v>1.9105781033060376E-2</v>
-      </c>
-      <c r="AE20" s="4">
-        <v>1.4392903121982492E-2</v>
-      </c>
-      <c r="AF20" s="4">
-        <v>2.5240949988490469E-2</v>
-      </c>
-      <c r="AG20" s="4">
-        <v>-4.1291699183055863E-3</v>
-      </c>
-      <c r="AH20" s="4">
-        <v>1.0803236001510674E-2</v>
-      </c>
-      <c r="AI20" s="4">
-        <v>2.391667236111239E-2</v>
-      </c>
-      <c r="AJ20" s="4">
-        <v>2.3577037506706366E-2</v>
-      </c>
-      <c r="AK20" s="4">
-        <v>2.1682575894018452E-2</v>
-      </c>
-      <c r="AL20" s="4">
-        <v>5.6113859596575111E-2</v>
-      </c>
-      <c r="AM20" s="4">
-        <v>3.3420397131936896E-2</v>
-      </c>
-      <c r="AN20" s="4">
-        <v>4.4258998592398902E-2</v>
-      </c>
-      <c r="AO20" s="4">
-        <v>4.9038595930755102E-2</v>
-      </c>
-      <c r="AP20" s="4">
-        <v>5.5558884627676663E-2</v>
-      </c>
-      <c r="AQ20" s="4">
-        <v>3.7383085750215983E-2</v>
-      </c>
-      <c r="AR20" s="4">
-        <v>1.8943692710606808E-2</v>
-      </c>
-      <c r="AS20" s="4">
-        <v>4.2251001361653051E-2</v>
-      </c>
-      <c r="AT20" s="4">
-        <v>3.0617176788550138E-2</v>
-      </c>
-      <c r="AU20" s="4">
-        <v>5.203287758791153E-2</v>
-      </c>
-      <c r="AV20" s="4">
-        <v>5.9997770729680822E-2</v>
-      </c>
-      <c r="AW20" s="4">
-        <v>4.0956499618417519E-2</v>
-      </c>
-      <c r="AX20" s="4">
-        <v>5.0287414896653004E-2</v>
-      </c>
-      <c r="AY20" s="4">
-        <v>4.1462220312390663E-2</v>
-      </c>
-      <c r="AZ20" s="4">
-        <v>5.7854953218768435E-2</v>
-      </c>
-      <c r="BA20" s="4">
-        <v>5.4474708171206254E-2</v>
-      </c>
-      <c r="BB20" s="4">
-        <v>6.0872913231911241E-2</v>
-      </c>
-      <c r="BC20" s="4">
-        <v>6.3943284913985377E-2</v>
-      </c>
-      <c r="BD20" s="4">
-        <v>5.0722869219730793E-2</v>
-      </c>
-      <c r="BE20" s="4">
-        <v>6.2958150238560551E-2</v>
-      </c>
-      <c r="BF20" s="4">
-        <v>5.7420972420235028E-2</v>
-      </c>
-      <c r="BG20" s="4">
-        <v>3.0346366158510385E-2</v>
-      </c>
-      <c r="BH20" s="4">
-        <v>2.724621659741544E-2</v>
-      </c>
-      <c r="BI20" s="4">
-        <v>2.9370574582064268E-2</v>
-      </c>
-      <c r="BJ20" s="4">
-        <v>1.6947992254581656E-2</v>
-      </c>
-      <c r="BK20" s="4">
-        <v>1.8472798243474031E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
@@ -2112,8 +2683,104 @@
       <c r="BK21" s="4">
         <v>3.6897597259244908E-2</v>
       </c>
+      <c r="BL21" s="4">
+        <v>3.9828313611362631E-2</v>
+      </c>
+      <c r="BM21" s="4"/>
+      <c r="BN21" s="4"/>
+      <c r="BO21" s="4"/>
+      <c r="BP21" s="4"/>
+      <c r="BQ21" s="4"/>
+      <c r="BR21" s="4"/>
+      <c r="BS21" s="4"/>
+      <c r="BT21" s="4"/>
+      <c r="BU21" s="4"/>
+      <c r="BV21" s="4"/>
+      <c r="BW21" s="4"/>
+      <c r="BX21" s="4"/>
+      <c r="BY21" s="4"/>
+      <c r="BZ21" s="4"/>
+      <c r="CA21" s="4"/>
+      <c r="CB21" s="4"/>
+      <c r="CC21" s="4"/>
+      <c r="CD21" s="4"/>
+      <c r="CE21" s="4"/>
+      <c r="CF21" s="4"/>
+      <c r="CG21" s="4"/>
+      <c r="CH21" s="4"/>
+      <c r="CI21" s="4"/>
+      <c r="CJ21" s="4"/>
+      <c r="CK21" s="4"/>
+      <c r="CL21" s="4"/>
+      <c r="CM21" s="4"/>
+      <c r="CN21" s="4"/>
+      <c r="CO21" s="4"/>
+      <c r="CP21" s="4"/>
+      <c r="CQ21" s="4"/>
+      <c r="CR21" s="4"/>
+      <c r="CS21" s="4"/>
+      <c r="CT21" s="4"/>
+      <c r="CU21" s="4"/>
+      <c r="CV21" s="4"/>
+      <c r="CW21" s="4"/>
+      <c r="CX21" s="4"/>
+      <c r="CY21" s="4"/>
+      <c r="CZ21" s="4"/>
+      <c r="DA21" s="4"/>
+      <c r="DB21" s="4"/>
+      <c r="DC21" s="4"/>
+      <c r="DD21" s="4"/>
+      <c r="DE21" s="4"/>
+      <c r="DF21" s="4"/>
+      <c r="DG21" s="4"/>
+      <c r="DH21" s="4"/>
+      <c r="DI21" s="4"/>
+      <c r="DJ21" s="4"/>
+      <c r="DK21" s="4"/>
+      <c r="DL21" s="4"/>
+      <c r="DM21" s="4"/>
+      <c r="DN21" s="4"/>
+      <c r="DO21" s="4"/>
+      <c r="DP21" s="4"/>
+      <c r="DQ21" s="4"/>
+      <c r="DR21" s="4"/>
+      <c r="DS21" s="4"/>
+      <c r="DT21" s="4"/>
+      <c r="DU21" s="4"/>
+      <c r="DV21" s="4"/>
+      <c r="DW21" s="4"/>
+      <c r="DX21" s="4"/>
+      <c r="DY21" s="4"/>
+      <c r="DZ21" s="4"/>
+      <c r="EA21" s="4"/>
+      <c r="EB21" s="4"/>
+      <c r="EC21" s="4"/>
+      <c r="ED21" s="4"/>
+      <c r="EE21" s="4"/>
+      <c r="EF21" s="4"/>
+      <c r="EG21" s="4"/>
+      <c r="EH21" s="4"/>
+      <c r="EI21" s="4"/>
+      <c r="EJ21" s="4"/>
+      <c r="EK21" s="4"/>
+      <c r="EL21" s="4"/>
+      <c r="EM21" s="4"/>
+      <c r="EN21" s="4"/>
+      <c r="EO21" s="4"/>
+      <c r="EP21" s="4"/>
+      <c r="EQ21" s="4"/>
+      <c r="ER21" s="4"/>
+      <c r="ES21" s="4"/>
+      <c r="ET21" s="4"/>
+      <c r="EU21" s="4"/>
+      <c r="EV21" s="4"/>
+      <c r="EW21" s="4"/>
+      <c r="EX21" s="4"/>
+      <c r="EY21" s="4"/>
+      <c r="EZ21" s="4"/>
+      <c r="FA21" s="4"/>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2303,388 +2970,676 @@
       <c r="BK22" s="4">
         <v>7.3217516204398203E-2</v>
       </c>
+      <c r="BL22" s="4">
+        <v>6.8018942667819049E-2</v>
+      </c>
+      <c r="BM22" s="4"/>
+      <c r="BN22" s="4"/>
+      <c r="BO22" s="4"/>
+      <c r="BP22" s="4"/>
+      <c r="BQ22" s="4"/>
+      <c r="BR22" s="4"/>
+      <c r="BS22" s="4"/>
+      <c r="BT22" s="4"/>
+      <c r="BU22" s="4"/>
+      <c r="BV22" s="4"/>
+      <c r="BW22" s="4"/>
+      <c r="BX22" s="4"/>
+      <c r="BY22" s="4"/>
+      <c r="BZ22" s="4"/>
+      <c r="CA22" s="4"/>
+      <c r="CB22" s="4"/>
+      <c r="CC22" s="4"/>
+      <c r="CD22" s="4"/>
+      <c r="CE22" s="4"/>
+      <c r="CF22" s="4"/>
+      <c r="CG22" s="4"/>
+      <c r="CH22" s="4"/>
+      <c r="CI22" s="4"/>
+      <c r="CJ22" s="4"/>
+      <c r="CK22" s="4"/>
+      <c r="CL22" s="4"/>
+      <c r="CM22" s="4"/>
+      <c r="CN22" s="4"/>
+      <c r="CO22" s="4"/>
+      <c r="CP22" s="4"/>
+      <c r="CQ22" s="4"/>
+      <c r="CR22" s="4"/>
+      <c r="CS22" s="4"/>
+      <c r="CT22" s="4"/>
+      <c r="CU22" s="4"/>
+      <c r="CV22" s="4"/>
+      <c r="CW22" s="4"/>
+      <c r="CX22" s="4"/>
+      <c r="CY22" s="4"/>
+      <c r="CZ22" s="4"/>
+      <c r="DA22" s="4"/>
+      <c r="DB22" s="4"/>
+      <c r="DC22" s="4"/>
+      <c r="DD22" s="4"/>
+      <c r="DE22" s="4"/>
+      <c r="DF22" s="4"/>
+      <c r="DG22" s="4"/>
+      <c r="DH22" s="4"/>
+      <c r="DI22" s="4"/>
+      <c r="DJ22" s="4"/>
+      <c r="DK22" s="4"/>
+      <c r="DL22" s="4"/>
+      <c r="DM22" s="4"/>
+      <c r="DN22" s="4"/>
+      <c r="DO22" s="4"/>
+      <c r="DP22" s="4"/>
+      <c r="DQ22" s="4"/>
+      <c r="DR22" s="4"/>
+      <c r="DS22" s="4"/>
+      <c r="DT22" s="4"/>
+      <c r="DU22" s="4"/>
+      <c r="DV22" s="4"/>
+      <c r="DW22" s="4"/>
+      <c r="DX22" s="4"/>
+      <c r="DY22" s="4"/>
+      <c r="DZ22" s="4"/>
+      <c r="EA22" s="4"/>
+      <c r="EB22" s="4"/>
+      <c r="EC22" s="4"/>
+      <c r="ED22" s="4"/>
+      <c r="EE22" s="4"/>
+      <c r="EF22" s="4"/>
+      <c r="EG22" s="4"/>
+      <c r="EH22" s="4"/>
+      <c r="EI22" s="4"/>
+      <c r="EJ22" s="4"/>
+      <c r="EK22" s="4"/>
+      <c r="EL22" s="4"/>
+      <c r="EM22" s="4"/>
+      <c r="EN22" s="4"/>
+      <c r="EO22" s="4"/>
+      <c r="EP22" s="4"/>
+      <c r="EQ22" s="4"/>
+      <c r="ER22" s="4"/>
+      <c r="ES22" s="4"/>
+      <c r="ET22" s="4"/>
+      <c r="EU22" s="4"/>
+      <c r="EV22" s="4"/>
+      <c r="EW22" s="4"/>
+      <c r="EX22" s="4"/>
+      <c r="EY22" s="4"/>
+      <c r="EZ22" s="4"/>
+      <c r="FA22" s="4"/>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B23" s="4">
-        <v>2.0450000000000079E-2</v>
+        <v>3.1789999999999985E-2</v>
       </c>
       <c r="C23" s="4">
-        <v>1.5649202050585176E-2</v>
+        <v>3.342059599394176E-2</v>
       </c>
       <c r="D23" s="4">
-        <v>1.4615799030269105E-2</v>
+        <v>3.8734156938910358E-2</v>
       </c>
       <c r="E23" s="4">
-        <v>1.0001984520738194E-2</v>
+        <v>3.9546100426281372E-2</v>
       </c>
       <c r="F23" s="4">
-        <v>7.8888833967674099E-3</v>
+        <v>3.3694320185707172E-2</v>
       </c>
       <c r="G23" s="4">
-        <v>7.5872683860529477E-3</v>
+        <v>3.0604734434056091E-2</v>
       </c>
       <c r="H23" s="4">
-        <v>9.2788395027569859E-3</v>
+        <v>2.580307503925261E-2</v>
       </c>
       <c r="I23" s="4">
-        <v>8.6280084503149723E-3</v>
+        <v>2.6969216059300694E-2</v>
       </c>
       <c r="J23" s="4">
-        <v>9.8287857107615118E-3</v>
+        <v>3.9493071041733163E-2</v>
       </c>
       <c r="K23" s="4">
-        <v>8.1578895637985926E-3</v>
+        <v>2.9583783415564557E-2</v>
       </c>
       <c r="L23" s="4">
-        <v>8.8398007599472805E-3</v>
+        <v>3.7158083797073305E-2</v>
       </c>
       <c r="M23" s="4">
-        <v>7.1424372464876651E-3</v>
+        <v>3.4315082032022159E-2</v>
       </c>
       <c r="N23" s="4">
-        <v>5.5404098144402614E-3</v>
+        <v>3.2328713066640313E-2</v>
       </c>
       <c r="O23" s="4">
-        <v>3.926841864226871E-3</v>
+        <v>2.5926107169072621E-2</v>
       </c>
       <c r="P23" s="4">
-        <v>2.1096020921029801E-3</v>
+        <v>2.3687423687423603E-2</v>
       </c>
       <c r="Q23" s="4">
-        <v>1.1061410232773294E-3</v>
+        <v>1.5623476174686513E-2</v>
       </c>
       <c r="R23" s="4">
-        <v>1.4157163912806858E-3</v>
+        <v>2.0825404260717661E-2</v>
       </c>
       <c r="S23" s="4">
-        <v>-2.3241400681750513E-4</v>
+        <v>-3.6284677580640246E-3</v>
       </c>
       <c r="T23" s="4">
-        <v>8.5177226706933951E-4</v>
+        <v>7.553702861895939E-3</v>
       </c>
       <c r="U23" s="4">
-        <v>6.9618356039868878E-4</v>
+        <v>2.1972341961029151E-2</v>
       </c>
       <c r="V23" s="4">
-        <v>3.4088047878213512E-3</v>
+        <v>1.7412182671755039E-2</v>
       </c>
       <c r="W23" s="4">
-        <v>7.7870125835015624E-3</v>
+        <v>1.5588054996059197E-2</v>
       </c>
       <c r="X23" s="4">
-        <v>1.3797743605745483E-2</v>
+        <v>-1.1457621243777805E-3</v>
       </c>
       <c r="Y23" s="4">
-        <v>1.4772085046674155E-2</v>
+        <v>2.120154964053711E-3</v>
       </c>
       <c r="Z23" s="4">
-        <v>2.0971140183252412E-2</v>
+        <v>4.2353579701295274E-3</v>
       </c>
       <c r="AA23" s="4">
-        <v>2.8927042849412166E-2</v>
+        <v>1.5218720579243117E-2</v>
       </c>
       <c r="AB23" s="4">
-        <v>2.9105497595846685E-2</v>
+        <v>9.3200327695051044E-3</v>
       </c>
       <c r="AC23" s="4">
-        <v>2.8215506739497798E-2</v>
+        <v>2.4546137111834287E-2</v>
       </c>
       <c r="AD23" s="4">
-        <v>2.6747619000912159E-2</v>
+        <v>2.9858801985446437E-2</v>
       </c>
       <c r="AE23" s="4">
-        <v>2.9895322307413652E-2</v>
+        <v>3.1925263229006795E-2</v>
       </c>
       <c r="AF23" s="4">
-        <v>3.0762603170251701E-2</v>
+        <v>3.5309973045822174E-2</v>
       </c>
       <c r="AG23" s="4">
-        <v>3.0928238656383389E-2</v>
+        <v>2.9821951336564734E-2</v>
       </c>
       <c r="AH23" s="4">
-        <v>3.1163577019671429E-2</v>
+        <v>3.0685246372647468E-2</v>
       </c>
       <c r="AI23" s="4">
-        <v>3.1811800491362119E-2</v>
+        <v>1.8563502490571704E-2</v>
       </c>
       <c r="AJ23" s="4">
-        <v>3.352718473127525E-2</v>
+        <v>1.4166075230660047E-2</v>
       </c>
       <c r="AK23" s="4">
-        <v>3.9875480324918611E-2</v>
+        <v>2.2073156748079414E-2</v>
       </c>
       <c r="AL23" s="4">
-        <v>4.6566769673293873E-2</v>
+        <v>2.2677318858584483E-2</v>
       </c>
       <c r="AM23" s="4">
-        <v>4.9461321945064585E-2</v>
+        <v>1.9661527894375475E-2</v>
       </c>
       <c r="AN23" s="4">
-        <v>5.2464105549088202E-2</v>
+        <v>2.1965648854961994E-2</v>
       </c>
       <c r="AO23" s="4">
-        <v>5.9888538890235044E-2</v>
+        <v>2.6310735548300324E-2</v>
       </c>
       <c r="AP23" s="4">
-        <v>6.0218448012084203E-2</v>
+        <v>3.1203097366282684E-2</v>
       </c>
       <c r="AQ23" s="4">
-        <v>6.2495156915923999E-2</v>
+        <v>2.7881325151497771E-2</v>
       </c>
       <c r="AR23" s="4">
-        <v>6.2484284636660892E-2</v>
+        <v>3.5632691458521215E-2</v>
       </c>
       <c r="AS23" s="4">
-        <v>6.2525967939860649E-2</v>
+        <v>3.7875390062123815E-2</v>
       </c>
       <c r="AT23" s="4">
-        <v>6.1497481035381218E-2</v>
+        <v>4.2612791511977166E-2</v>
       </c>
       <c r="AU23" s="4">
-        <v>6.2836002081045228E-2</v>
+        <v>4.3315800063234766E-2</v>
       </c>
       <c r="AV23" s="4">
-        <v>6.5125807940904945E-2</v>
+        <v>5.5965761215322596E-2</v>
       </c>
       <c r="AW23" s="4">
-        <v>6.9731712469512708E-2</v>
+        <v>5.5517088838882067E-2</v>
       </c>
       <c r="AX23" s="4">
-        <v>7.1305850170370055E-2</v>
+        <v>5.4711627547868957E-2</v>
       </c>
       <c r="AY23" s="4">
-        <v>5.615108773607469E-2</v>
+        <v>4.3375175670895327E-2</v>
       </c>
       <c r="AZ23" s="4">
-        <v>5.7443698105275276E-2</v>
+        <v>4.6828746586199843E-2</v>
       </c>
       <c r="BA23" s="4">
-        <v>6.2564494553793315E-2</v>
+        <v>3.2930587395242128E-2</v>
       </c>
       <c r="BB23" s="4">
-        <v>6.7338555598012828E-2</v>
+        <v>3.072445322077999E-2</v>
       </c>
       <c r="BC23" s="4">
-        <v>6.8390127025176772E-2</v>
+        <v>3.4715922375496922E-2</v>
       </c>
       <c r="BD23" s="4">
-        <v>7.0536384274166863E-2</v>
+        <v>3.2199576003272945E-2</v>
       </c>
       <c r="BE23" s="4">
-        <v>7.1250901910150821E-2</v>
+        <v>3.4718338739141652E-2</v>
       </c>
       <c r="BF23" s="4">
-        <v>6.5646322971948612E-2</v>
+        <v>3.0180544327674586E-2</v>
       </c>
       <c r="BG23" s="4">
-        <v>5.3290499362214749E-2</v>
+        <v>4.0310681773892743E-2</v>
       </c>
       <c r="BH23" s="4">
-        <v>4.8999244712990997E-2</v>
+        <v>3.7920352330832685E-2</v>
       </c>
       <c r="BI23" s="4">
-        <v>4.1658091193144564E-2</v>
+        <v>3.5218114844524084E-2</v>
       </c>
       <c r="BJ23" s="4">
-        <v>4.2182770339282083E-2</v>
+        <v>3.9153389711722664E-2</v>
       </c>
       <c r="BK23" s="4">
-        <v>4.4337162199655999E-2</v>
-      </c>
+        <v>4.628338868877746E-2</v>
+      </c>
+      <c r="BL23" s="4">
+        <v>4.4751731993800226E-2</v>
+      </c>
+      <c r="BM23" s="4"/>
+      <c r="BN23" s="4"/>
+      <c r="BO23" s="4"/>
+      <c r="BP23" s="4"/>
+      <c r="BQ23" s="4"/>
+      <c r="BR23" s="4"/>
+      <c r="BS23" s="4"/>
+      <c r="BT23" s="4"/>
+      <c r="BU23" s="4"/>
+      <c r="BV23" s="4"/>
+      <c r="BW23" s="4"/>
+      <c r="BX23" s="4"/>
+      <c r="BY23" s="4"/>
+      <c r="BZ23" s="4"/>
+      <c r="CA23" s="4"/>
+      <c r="CB23" s="4"/>
+      <c r="CC23" s="4"/>
+      <c r="CD23" s="4"/>
+      <c r="CE23" s="4"/>
+      <c r="CF23" s="4"/>
+      <c r="CG23" s="4"/>
+      <c r="CH23" s="4"/>
+      <c r="CI23" s="4"/>
+      <c r="CJ23" s="4"/>
+      <c r="CK23" s="4"/>
+      <c r="CL23" s="4"/>
+      <c r="CM23" s="4"/>
+      <c r="CN23" s="4"/>
+      <c r="CO23" s="4"/>
+      <c r="CP23" s="4"/>
+      <c r="CQ23" s="4"/>
+      <c r="CR23" s="4"/>
+      <c r="CS23" s="4"/>
+      <c r="CT23" s="4"/>
+      <c r="CU23" s="4"/>
+      <c r="CV23" s="4"/>
+      <c r="CW23" s="4"/>
+      <c r="CX23" s="4"/>
+      <c r="CY23" s="4"/>
+      <c r="CZ23" s="4"/>
+      <c r="DA23" s="4"/>
+      <c r="DB23" s="4"/>
+      <c r="DC23" s="4"/>
+      <c r="DD23" s="4"/>
+      <c r="DE23" s="4"/>
+      <c r="DF23" s="4"/>
+      <c r="DG23" s="4"/>
+      <c r="DH23" s="4"/>
+      <c r="DI23" s="4"/>
+      <c r="DJ23" s="4"/>
+      <c r="DK23" s="4"/>
+      <c r="DL23" s="4"/>
+      <c r="DM23" s="4"/>
+      <c r="DN23" s="4"/>
+      <c r="DO23" s="4"/>
+      <c r="DP23" s="4"/>
+      <c r="DQ23" s="4"/>
+      <c r="DR23" s="4"/>
+      <c r="DS23" s="4"/>
+      <c r="DT23" s="4"/>
+      <c r="DU23" s="4"/>
+      <c r="DV23" s="4"/>
+      <c r="DW23" s="4"/>
+      <c r="DX23" s="4"/>
+      <c r="DY23" s="4"/>
+      <c r="DZ23" s="4"/>
+      <c r="EA23" s="4"/>
+      <c r="EB23" s="4"/>
+      <c r="EC23" s="4"/>
+      <c r="ED23" s="4"/>
+      <c r="EE23" s="4"/>
+      <c r="EF23" s="4"/>
+      <c r="EG23" s="4"/>
+      <c r="EH23" s="4"/>
+      <c r="EI23" s="4"/>
+      <c r="EJ23" s="4"/>
+      <c r="EK23" s="4"/>
+      <c r="EL23" s="4"/>
+      <c r="EM23" s="4"/>
+      <c r="EN23" s="4"/>
+      <c r="EO23" s="4"/>
+      <c r="EP23" s="4"/>
+      <c r="EQ23" s="4"/>
+      <c r="ER23" s="4"/>
+      <c r="ES23" s="4"/>
+      <c r="ET23" s="4"/>
+      <c r="EU23" s="4"/>
+      <c r="EV23" s="4"/>
+      <c r="EW23" s="4"/>
+      <c r="EX23" s="4"/>
+      <c r="EY23" s="4"/>
+      <c r="EZ23" s="4"/>
+      <c r="FA23" s="4"/>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5">
-        <v>4.0189999999999948E-2</v>
+        <v>6.2769999999999992E-2</v>
       </c>
       <c r="C24" s="5">
-        <v>3.6600929230891754E-2</v>
+        <v>5.5946624834940062E-2</v>
       </c>
       <c r="D24" s="5">
-        <v>3.5109175516048197E-2</v>
+        <v>6.0369903404183578E-2</v>
       </c>
       <c r="E24" s="5">
-        <v>3.1027955881041347E-2</v>
+        <v>5.8693962166364244E-2</v>
       </c>
       <c r="F24" s="5">
-        <v>3.1847763733111822E-2</v>
+        <v>6.4225762076596471E-2</v>
       </c>
       <c r="G24" s="5">
-        <v>3.2468751543896168E-2</v>
+        <v>6.6197671538271052E-2</v>
       </c>
       <c r="H24" s="5">
-        <v>3.4698695218434938E-2</v>
+        <v>6.89091287499628E-2</v>
       </c>
       <c r="I24" s="5">
-        <v>3.3573046990444277E-2</v>
+        <v>6.3817405284909645E-2</v>
       </c>
       <c r="J24" s="5">
-        <v>3.3272337327588053E-2</v>
+        <v>6.4068060607853194E-2</v>
       </c>
       <c r="K24" s="5">
-        <v>3.1591808806998634E-2</v>
+        <v>7.3635655782138709E-2</v>
       </c>
       <c r="L24" s="5">
-        <v>3.6688257601740437E-2</v>
+        <v>7.1204476833957697E-2</v>
       </c>
       <c r="M24" s="5">
-        <v>3.7604661411154039E-2</v>
+        <v>7.4975724108167441E-2</v>
       </c>
       <c r="N24" s="5">
-        <v>3.5860976373024656E-2</v>
+        <v>6.7466339792980001E-2</v>
       </c>
       <c r="O24" s="5">
-        <v>3.8003264683745819E-2</v>
+        <v>6.9856589675235004E-2</v>
       </c>
       <c r="P24" s="5">
-        <v>3.5756365937971823E-2</v>
+        <v>5.8304856331520272E-2</v>
       </c>
       <c r="Q24" s="5">
-        <v>3.2625542467451973E-2</v>
+        <v>6.4524508153350313E-2</v>
       </c>
       <c r="R24" s="5">
-        <v>2.5983458908752866E-2</v>
+        <v>6.1755052686128797E-2</v>
       </c>
       <c r="S24" s="5">
-        <v>1.8256204407734788E-2</v>
+        <v>6.0641332659116642E-2</v>
       </c>
       <c r="T24" s="5">
-        <v>1.6436745042465839E-2</v>
+        <v>6.0893796104553033E-2</v>
       </c>
       <c r="U24" s="5">
-        <v>2.1838604333041189E-2</v>
+        <v>6.2055875087036583E-2</v>
       </c>
       <c r="V24" s="5">
-        <v>2.5397039419826406E-2</v>
+        <v>5.7363590634283312E-2</v>
       </c>
       <c r="W24" s="5">
-        <v>2.7047831651062726E-2</v>
+        <v>5.4870360714793565E-2</v>
       </c>
       <c r="X24" s="5">
-        <v>2.8672317743161368E-2</v>
+        <v>5.4185698311316699E-2</v>
       </c>
       <c r="Y24" s="5">
-        <v>3.1361430150415703E-2</v>
+        <v>5.2208797432508947E-2</v>
       </c>
       <c r="Z24" s="5">
-        <v>3.0965496688104999E-2</v>
+        <v>4.7140961826171335E-2</v>
       </c>
       <c r="AA24" s="5">
-        <v>3.6280045013417528E-2</v>
+        <v>4.6711045921245642E-2</v>
       </c>
       <c r="AB24" s="5">
-        <v>3.7232356416241563E-2</v>
+        <v>4.92463252504447E-2</v>
       </c>
       <c r="AC24" s="5">
-        <v>3.8917723952325955E-2</v>
+        <v>5.4856292893252778E-2</v>
       </c>
       <c r="AD24" s="5">
-        <v>3.8168816977551367E-2</v>
+        <v>4.7161416622174768E-2</v>
       </c>
       <c r="AE24" s="5">
-        <v>3.886459120881236E-2</v>
+        <v>4.3882311395275542E-2</v>
       </c>
       <c r="AF24" s="5">
-        <v>4.0904578258047275E-2</v>
+        <v>3.9729634505906164E-2</v>
       </c>
       <c r="AG24" s="5">
-        <v>3.5723136163479996E-2</v>
+        <v>4.021214059877809E-2</v>
       </c>
       <c r="AH24" s="5">
-        <v>3.4866892638153457E-2</v>
+        <v>4.3552780299801697E-2</v>
       </c>
       <c r="AI24" s="5">
-        <v>3.4348143305191536E-2</v>
+        <v>3.440741760763788E-2</v>
       </c>
       <c r="AJ24" s="5">
-        <v>3.3499380866408801E-2</v>
+        <v>3.4989303978185671E-2</v>
       </c>
       <c r="AK24" s="5">
-        <v>3.8837242225473023E-2</v>
+        <v>4.2984753232296669E-2</v>
       </c>
       <c r="AL24" s="5">
-        <v>4.5353700329484603E-2</v>
+        <v>4.3179891913567303E-2</v>
       </c>
       <c r="AM24" s="5">
-        <v>4.3994538349263257E-2</v>
+        <v>4.3169458540222916E-2</v>
       </c>
       <c r="AN24" s="5">
-        <v>4.5775475476416583E-2</v>
+        <v>4.3359225773589749E-2</v>
       </c>
       <c r="AO24" s="5">
-        <v>4.8461538461538556E-2</v>
+        <v>4.5403607707045435E-2</v>
       </c>
       <c r="AP24" s="5">
-        <v>5.706950094864105E-2</v>
+        <v>4.5301300649873033E-2</v>
       </c>
       <c r="AQ24" s="5">
-        <v>6.3793495565158009E-2</v>
+        <v>4.4032059297106185E-2</v>
       </c>
       <c r="AR24" s="5">
-        <v>6.8306840168443461E-2</v>
+        <v>4.7458846811190059E-2</v>
       </c>
       <c r="AS24" s="5">
-        <v>6.7735731659030574E-2</v>
+        <v>4.9080801458503576E-2</v>
       </c>
       <c r="AT24" s="5">
-        <v>6.5540819776834347E-2</v>
+        <v>5.2115217176658568E-2</v>
       </c>
       <c r="AU24" s="5">
-        <v>6.71457212988813E-2</v>
+        <v>6.1614228069702515E-2</v>
       </c>
       <c r="AV24" s="5">
-        <v>6.693292677223539E-2</v>
+        <v>6.0003236129589022E-2</v>
       </c>
       <c r="AW24" s="5">
-        <v>6.5475081075036412E-2</v>
+        <v>6.2886311237900339E-2</v>
       </c>
       <c r="AX24" s="5">
-        <v>6.9116001491980716E-2</v>
+        <v>6.5146872500831288E-2</v>
       </c>
       <c r="AY24" s="5">
-        <v>6.4766430606732817E-2</v>
+        <v>6.9544752254680153E-2</v>
       </c>
       <c r="AZ24" s="5">
-        <v>6.5762787208623941E-2</v>
+        <v>6.6458463460337347E-2</v>
       </c>
       <c r="BA24" s="5">
-        <v>6.7675711682039674E-2</v>
+        <v>6.3650156180276696E-2</v>
       </c>
       <c r="BB24" s="5">
-        <v>6.8240573180189834E-2</v>
+        <v>6.7945185874270786E-2</v>
       </c>
       <c r="BC24" s="5">
-        <v>6.9432161544697335E-2</v>
+        <v>6.2700306245993875E-2</v>
       </c>
       <c r="BD24" s="5">
-        <v>6.8469658201960826E-2</v>
+        <v>7.0796065597160673E-2</v>
       </c>
       <c r="BE24" s="5">
-        <v>7.4724384812176803E-2</v>
+        <v>7.6931990373473536E-2</v>
       </c>
       <c r="BF24" s="5">
-        <v>7.7716441254945368E-2</v>
+        <v>7.3012011825389189E-2</v>
       </c>
       <c r="BG24" s="5">
-        <v>7.6152873710631841E-2</v>
+        <v>7.6110687090647833E-2</v>
       </c>
       <c r="BH24" s="5">
-        <v>7.4457868790985593E-2</v>
+        <v>7.561429965404054E-2</v>
       </c>
       <c r="BI24" s="5">
-        <v>7.0191696193331543E-2</v>
+        <v>6.5848409560135712E-2</v>
       </c>
       <c r="BJ24" s="5">
-        <v>6.8429560992350646E-2</v>
+        <v>7.5036037216616336E-2</v>
       </c>
       <c r="BK24" s="5">
-        <v>7.3863277620933143E-2</v>
-      </c>
+        <v>7.9156822917120673E-2</v>
+      </c>
+      <c r="BL24" s="5">
+        <v>8.4073612358228189E-2</v>
+      </c>
+      <c r="BM24" s="5"/>
+      <c r="BN24" s="5"/>
+      <c r="BO24" s="5"/>
+      <c r="BP24" s="5"/>
+      <c r="BQ24" s="5"/>
+      <c r="BR24" s="5"/>
+      <c r="BS24" s="5"/>
+      <c r="BT24" s="5"/>
+      <c r="BU24" s="5"/>
+      <c r="BV24" s="5"/>
+      <c r="BW24" s="5"/>
+      <c r="BX24" s="5"/>
+      <c r="BY24" s="5"/>
+      <c r="BZ24" s="5"/>
+      <c r="CA24" s="5"/>
+      <c r="CB24" s="5"/>
+      <c r="CC24" s="5"/>
+      <c r="CD24" s="5"/>
+      <c r="CE24" s="5"/>
+      <c r="CF24" s="5"/>
+      <c r="CG24" s="5"/>
+      <c r="CH24" s="5"/>
+      <c r="CI24" s="5"/>
+      <c r="CJ24" s="5"/>
+      <c r="CK24" s="5"/>
+      <c r="CL24" s="5"/>
+      <c r="CM24" s="5"/>
+      <c r="CN24" s="5"/>
+      <c r="CO24" s="5"/>
+      <c r="CP24" s="5"/>
+      <c r="CQ24" s="5"/>
+      <c r="CR24" s="5"/>
+      <c r="CS24" s="5"/>
+      <c r="CT24" s="5"/>
+      <c r="CU24" s="5"/>
+      <c r="CV24" s="5"/>
+      <c r="CW24" s="5"/>
+      <c r="CX24" s="5"/>
+      <c r="CY24" s="5"/>
+      <c r="CZ24" s="5"/>
+      <c r="DA24" s="5"/>
+      <c r="DB24" s="5"/>
+      <c r="DC24" s="5"/>
+      <c r="DD24" s="5"/>
+      <c r="DE24" s="5"/>
+      <c r="DF24" s="5"/>
+      <c r="DG24" s="5"/>
+      <c r="DH24" s="5"/>
+      <c r="DI24" s="5"/>
+      <c r="DJ24" s="5"/>
+      <c r="DK24" s="5"/>
+      <c r="DL24" s="5"/>
+      <c r="DM24" s="5"/>
+      <c r="DN24" s="5"/>
+      <c r="DO24" s="5"/>
+      <c r="DP24" s="5"/>
+      <c r="DQ24" s="5"/>
+      <c r="DR24" s="5"/>
+      <c r="DS24" s="5"/>
+      <c r="DT24" s="5"/>
+      <c r="DU24" s="5"/>
+      <c r="DV24" s="5"/>
+      <c r="DW24" s="5"/>
+      <c r="DX24" s="5"/>
+      <c r="DY24" s="5"/>
+      <c r="DZ24" s="5"/>
+      <c r="EA24" s="5"/>
+      <c r="EB24" s="5"/>
+      <c r="EC24" s="5"/>
+      <c r="ED24" s="5"/>
+      <c r="EE24" s="5"/>
+      <c r="EF24" s="5"/>
+      <c r="EG24" s="5"/>
+      <c r="EH24" s="5"/>
+      <c r="EI24" s="5"/>
+      <c r="EJ24" s="5"/>
+      <c r="EK24" s="5"/>
+      <c r="EL24" s="5"/>
+      <c r="EM24" s="5"/>
+      <c r="EN24" s="5"/>
+      <c r="EO24" s="5"/>
+      <c r="EP24" s="5"/>
+      <c r="EQ24" s="5"/>
+      <c r="ER24" s="5"/>
+      <c r="ES24" s="5"/>
+      <c r="ET24" s="5"/>
+      <c r="EU24" s="5"/>
+      <c r="EV24" s="5"/>
+      <c r="EW24" s="5"/>
+      <c r="EX24" s="5"/>
+      <c r="EY24" s="5"/>
+      <c r="EZ24" s="5"/>
+      <c r="FA24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -260,10 +260,13 @@
     <t>1°Q/2/2022</t>
   </si>
   <si>
-    <t>Última actualización:  03/09/2022</t>
-  </si>
-  <si>
     <t>2°Q/2/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  03/24/2022</t>
+  </si>
+  <si>
+    <t>1°Q/3/2022</t>
   </si>
 </sst>
 </file>
@@ -758,7 +761,7 @@
     </row>
     <row r="11" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:157" x14ac:dyDescent="0.25">
@@ -962,9 +965,11 @@
         <v>76</v>
       </c>
       <c r="BL15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM15" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="BM15" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="BN15" s="3"/>
       <c r="BO15" s="3"/>
       <c r="BP15" s="3"/>
@@ -1251,7 +1256,9 @@
       <c r="BL16" s="4">
         <v>7.4319464921428269E-2</v>
       </c>
-      <c r="BM16" s="4"/>
+      <c r="BM16" s="4">
+        <v>7.5828069359196837E-2</v>
+      </c>
       <c r="BN16" s="4"/>
       <c r="BO16" s="4"/>
       <c r="BP16" s="4"/>
@@ -1538,7 +1545,9 @@
       <c r="BL17" s="4">
         <v>0.12422317478352207</v>
       </c>
-      <c r="BM17" s="4"/>
+      <c r="BM17" s="4">
+        <v>0.12216802818470929</v>
+      </c>
       <c r="BN17" s="4"/>
       <c r="BO17" s="4"/>
       <c r="BP17" s="4"/>
@@ -1825,7 +1834,9 @@
       <c r="BL18" s="4">
         <v>2.0575378868113559E-2</v>
       </c>
-      <c r="BM18" s="4"/>
+      <c r="BM18" s="4">
+        <v>3.1205390281505041E-2</v>
+      </c>
       <c r="BN18" s="4"/>
       <c r="BO18" s="4"/>
       <c r="BP18" s="4"/>
@@ -2112,7 +2123,9 @@
       <c r="BL19" s="4">
         <v>4.1884816753926746E-2</v>
       </c>
-      <c r="BM19" s="4"/>
+      <c r="BM19" s="4">
+        <v>4.5896812187940172E-2</v>
+      </c>
       <c r="BN19" s="4"/>
       <c r="BO19" s="4"/>
       <c r="BP19" s="4"/>
@@ -2399,7 +2412,9 @@
       <c r="BL20" s="4">
         <v>3.7642288803441559E-2</v>
       </c>
-      <c r="BM20" s="4"/>
+      <c r="BM20" s="4">
+        <v>6.3015531660693069E-2</v>
+      </c>
       <c r="BN20" s="4"/>
       <c r="BO20" s="4"/>
       <c r="BP20" s="4"/>
@@ -2686,7 +2701,9 @@
       <c r="BL21" s="4">
         <v>3.9828313611362631E-2</v>
       </c>
-      <c r="BM21" s="4"/>
+      <c r="BM21" s="4">
+        <v>5.2078321057112298E-2</v>
+      </c>
       <c r="BN21" s="4"/>
       <c r="BO21" s="4"/>
       <c r="BP21" s="4"/>
@@ -2973,7 +2990,9 @@
       <c r="BL22" s="4">
         <v>6.8018942667819049E-2</v>
       </c>
-      <c r="BM22" s="4"/>
+      <c r="BM22" s="4">
+        <v>6.4769695891872647E-2</v>
+      </c>
       <c r="BN22" s="4"/>
       <c r="BO22" s="4"/>
       <c r="BP22" s="4"/>
@@ -3260,7 +3279,9 @@
       <c r="BL23" s="4">
         <v>4.4751731993800226E-2</v>
       </c>
-      <c r="BM23" s="4"/>
+      <c r="BM23" s="4">
+        <v>4.3581586826347385E-2</v>
+      </c>
       <c r="BN23" s="4"/>
       <c r="BO23" s="4"/>
       <c r="BP23" s="4"/>
@@ -3547,7 +3568,9 @@
       <c r="BL24" s="5">
         <v>8.4073612358228189E-2</v>
       </c>
-      <c r="BM24" s="5"/>
+      <c r="BM24" s="5">
+        <v>7.688716760607206E-2</v>
+      </c>
       <c r="BN24" s="5"/>
       <c r="BO24" s="5"/>
       <c r="BP24" s="5"/>

--- a/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -263,10 +263,13 @@
     <t>2°Q/2/2022</t>
   </si>
   <si>
-    <t>Última actualización:  03/24/2022</t>
-  </si>
-  <si>
     <t>1°Q/3/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  04/07/2022</t>
+  </si>
+  <si>
+    <t>2°Q/3/2022</t>
   </si>
 </sst>
 </file>
@@ -761,7 +764,7 @@
     </row>
     <row r="11" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:157" x14ac:dyDescent="0.25">
@@ -968,9 +971,11 @@
         <v>77</v>
       </c>
       <c r="BM15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN15" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="BN15" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="BO15" s="3"/>
       <c r="BP15" s="3"/>
       <c r="BQ15" s="3"/>
@@ -1259,7 +1264,9 @@
       <c r="BM16" s="4">
         <v>7.5828069359196837E-2</v>
       </c>
-      <c r="BN16" s="4"/>
+      <c r="BN16" s="4">
+        <v>7.9786046594694016E-2</v>
+      </c>
       <c r="BO16" s="4"/>
       <c r="BP16" s="4"/>
       <c r="BQ16" s="4"/>
@@ -1548,7 +1555,9 @@
       <c r="BM17" s="4">
         <v>0.12216802818470929</v>
       </c>
-      <c r="BN17" s="4"/>
+      <c r="BN17" s="4">
+        <v>0.12608098833218939</v>
+      </c>
       <c r="BO17" s="4"/>
       <c r="BP17" s="4"/>
       <c r="BQ17" s="4"/>
@@ -1837,7 +1846,9 @@
       <c r="BM18" s="4">
         <v>3.1205390281505041E-2</v>
       </c>
-      <c r="BN18" s="4"/>
+      <c r="BN18" s="4">
+        <v>4.1299637622881802E-2</v>
+      </c>
       <c r="BO18" s="4"/>
       <c r="BP18" s="4"/>
       <c r="BQ18" s="4"/>
@@ -2126,7 +2137,9 @@
       <c r="BM19" s="4">
         <v>4.5896812187940172E-2</v>
       </c>
-      <c r="BN19" s="4"/>
+      <c r="BN19" s="4">
+        <v>4.8980300110509356E-2</v>
+      </c>
       <c r="BO19" s="4"/>
       <c r="BP19" s="4"/>
       <c r="BQ19" s="4"/>
@@ -2415,7 +2428,9 @@
       <c r="BM20" s="4">
         <v>6.3015531660693069E-2</v>
       </c>
-      <c r="BN20" s="4"/>
+      <c r="BN20" s="4">
+        <v>6.3179586526499687E-2</v>
+      </c>
       <c r="BO20" s="4"/>
       <c r="BP20" s="4"/>
       <c r="BQ20" s="4"/>
@@ -2704,7 +2719,9 @@
       <c r="BM21" s="4">
         <v>5.2078321057112298E-2</v>
       </c>
-      <c r="BN21" s="4"/>
+      <c r="BN21" s="4">
+        <v>4.3731805284298098E-2</v>
+      </c>
       <c r="BO21" s="4"/>
       <c r="BP21" s="4"/>
       <c r="BQ21" s="4"/>
@@ -2993,7 +3010,9 @@
       <c r="BM22" s="4">
         <v>6.4769695891872647E-2</v>
       </c>
-      <c r="BN22" s="4"/>
+      <c r="BN22" s="4">
+        <v>7.4043519528789847E-2</v>
+      </c>
       <c r="BO22" s="4"/>
       <c r="BP22" s="4"/>
       <c r="BQ22" s="4"/>
@@ -3282,7 +3301,9 @@
       <c r="BM23" s="4">
         <v>4.3581586826347385E-2</v>
       </c>
-      <c r="BN23" s="4"/>
+      <c r="BN23" s="4">
+        <v>5.0107074321630973E-2</v>
+      </c>
       <c r="BO23" s="4"/>
       <c r="BP23" s="4"/>
       <c r="BQ23" s="4"/>
@@ -3571,7 +3592,9 @@
       <c r="BM24" s="5">
         <v>7.688716760607206E-2</v>
       </c>
-      <c r="BN24" s="5"/>
+      <c r="BN24" s="5">
+        <v>8.178194363980662E-2</v>
+      </c>
       <c r="BO24" s="5"/>
       <c r="BP24" s="5"/>
       <c r="BQ24" s="5"/>

--- a/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -266,10 +266,13 @@
     <t>1°Q/3/2022</t>
   </si>
   <si>
-    <t>Última actualización:  04/07/2022</t>
-  </si>
-  <si>
     <t>2°Q/3/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  04/22/2022</t>
+  </si>
+  <si>
+    <t>1°Q/4/2022</t>
   </si>
 </sst>
 </file>
@@ -764,7 +767,7 @@
     </row>
     <row r="11" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:157" x14ac:dyDescent="0.25">
@@ -974,9 +977,11 @@
         <v>78</v>
       </c>
       <c r="BN15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BO15" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="BO15" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="BP15" s="3"/>
       <c r="BQ15" s="3"/>
       <c r="BR15" s="3"/>
@@ -1267,7 +1272,9 @@
       <c r="BN16" s="4">
         <v>7.9786046594694016E-2</v>
       </c>
-      <c r="BO16" s="4"/>
+      <c r="BO16" s="4">
+        <v>8.3413504364867164E-2</v>
+      </c>
       <c r="BP16" s="4"/>
       <c r="BQ16" s="4"/>
       <c r="BR16" s="4"/>
@@ -1558,7 +1565,9 @@
       <c r="BN17" s="4">
         <v>0.12608098833218939</v>
       </c>
-      <c r="BO17" s="4"/>
+      <c r="BO17" s="4">
+        <v>0.13161444548791934</v>
+      </c>
       <c r="BP17" s="4"/>
       <c r="BQ17" s="4"/>
       <c r="BR17" s="4"/>
@@ -1849,7 +1858,9 @@
       <c r="BN18" s="4">
         <v>4.1299637622881802E-2</v>
       </c>
-      <c r="BO18" s="4"/>
+      <c r="BO18" s="4">
+        <v>4.0657644262186432E-2</v>
+      </c>
       <c r="BP18" s="4"/>
       <c r="BQ18" s="4"/>
       <c r="BR18" s="4"/>
@@ -2140,7 +2151,9 @@
       <c r="BN19" s="4">
         <v>4.8980300110509356E-2</v>
       </c>
-      <c r="BO19" s="4"/>
+      <c r="BO19" s="4">
+        <v>4.6366188965466959E-2</v>
+      </c>
       <c r="BP19" s="4"/>
       <c r="BQ19" s="4"/>
       <c r="BR19" s="4"/>
@@ -2431,7 +2444,9 @@
       <c r="BN20" s="4">
         <v>6.3179586526499687E-2</v>
       </c>
-      <c r="BO20" s="4"/>
+      <c r="BO20" s="4">
+        <v>5.9350123232952745E-2</v>
+      </c>
       <c r="BP20" s="4"/>
       <c r="BQ20" s="4"/>
       <c r="BR20" s="4"/>
@@ -2722,7 +2737,9 @@
       <c r="BN21" s="4">
         <v>4.3731805284298098E-2</v>
       </c>
-      <c r="BO21" s="4"/>
+      <c r="BO21" s="4">
+        <v>5.7880841164632768E-2</v>
+      </c>
       <c r="BP21" s="4"/>
       <c r="BQ21" s="4"/>
       <c r="BR21" s="4"/>
@@ -3013,7 +3030,9 @@
       <c r="BN22" s="4">
         <v>7.4043519528789847E-2</v>
       </c>
-      <c r="BO22" s="4"/>
+      <c r="BO22" s="4">
+        <v>7.0753966148458636E-2</v>
+      </c>
       <c r="BP22" s="4"/>
       <c r="BQ22" s="4"/>
       <c r="BR22" s="4"/>
@@ -3304,7 +3323,9 @@
       <c r="BN23" s="4">
         <v>5.0107074321630973E-2</v>
       </c>
-      <c r="BO23" s="4"/>
+      <c r="BO23" s="4">
+        <v>7.144384827829886E-2</v>
+      </c>
       <c r="BP23" s="4"/>
       <c r="BQ23" s="4"/>
       <c r="BR23" s="4"/>
@@ -3595,7 +3616,9 @@
       <c r="BN24" s="5">
         <v>8.178194363980662E-2</v>
       </c>
-      <c r="BO24" s="5"/>
+      <c r="BO24" s="5">
+        <v>8.2144334160463295E-2</v>
+      </c>
       <c r="BP24" s="5"/>
       <c r="BQ24" s="5"/>
       <c r="BR24" s="5"/>

--- a/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -269,10 +269,13 @@
     <t>2°Q/3/2022</t>
   </si>
   <si>
-    <t>Última actualización:  04/22/2022</t>
-  </si>
-  <si>
     <t>1°Q/4/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  05/09/2022</t>
+  </si>
+  <si>
+    <t>2°Q/4/2022</t>
   </si>
 </sst>
 </file>
@@ -767,7 +770,7 @@
     </row>
     <row r="11" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:157" x14ac:dyDescent="0.25">
@@ -980,9 +983,11 @@
         <v>79</v>
       </c>
       <c r="BO15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BP15" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="BP15" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="BQ15" s="3"/>
       <c r="BR15" s="3"/>
       <c r="BS15" s="3"/>
@@ -1275,7 +1280,9 @@
       <c r="BO16" s="4">
         <v>8.3413504364867164E-2</v>
       </c>
-      <c r="BP16" s="4"/>
+      <c r="BP16" s="4">
+        <v>8.1526660629627656E-2</v>
+      </c>
       <c r="BQ16" s="4"/>
       <c r="BR16" s="4"/>
       <c r="BS16" s="4"/>
@@ -1568,7 +1575,9 @@
       <c r="BO17" s="4">
         <v>0.13161444548791934</v>
       </c>
-      <c r="BP17" s="4"/>
+      <c r="BP17" s="4">
+        <v>0.12461027517961232</v>
+      </c>
       <c r="BQ17" s="4"/>
       <c r="BR17" s="4"/>
       <c r="BS17" s="4"/>
@@ -1861,7 +1870,9 @@
       <c r="BO18" s="4">
         <v>4.0657644262186432E-2</v>
       </c>
-      <c r="BP18" s="4"/>
+      <c r="BP18" s="4">
+        <v>5.9049196557764194E-2</v>
+      </c>
       <c r="BQ18" s="4"/>
       <c r="BR18" s="4"/>
       <c r="BS18" s="4"/>
@@ -2154,7 +2165,9 @@
       <c r="BO19" s="4">
         <v>4.6366188965466959E-2</v>
       </c>
-      <c r="BP19" s="4"/>
+      <c r="BP19" s="4">
+        <v>4.3954743635254756E-2</v>
+      </c>
       <c r="BQ19" s="4"/>
       <c r="BR19" s="4"/>
       <c r="BS19" s="4"/>
@@ -2447,7 +2460,9 @@
       <c r="BO20" s="4">
         <v>5.9350123232952745E-2</v>
       </c>
-      <c r="BP20" s="4"/>
+      <c r="BP20" s="4">
+        <v>6.3091334011836198E-2</v>
+      </c>
       <c r="BQ20" s="4"/>
       <c r="BR20" s="4"/>
       <c r="BS20" s="4"/>
@@ -2740,7 +2755,9 @@
       <c r="BO21" s="4">
         <v>5.7880841164632768E-2</v>
       </c>
-      <c r="BP21" s="4"/>
+      <c r="BP21" s="4">
+        <v>5.9909365280072402E-2</v>
+      </c>
       <c r="BQ21" s="4"/>
       <c r="BR21" s="4"/>
       <c r="BS21" s="4"/>
@@ -3033,7 +3050,9 @@
       <c r="BO22" s="4">
         <v>7.0753966148458636E-2</v>
       </c>
-      <c r="BP22" s="4"/>
+      <c r="BP22" s="4">
+        <v>7.2276807803774545E-2</v>
+      </c>
       <c r="BQ22" s="4"/>
       <c r="BR22" s="4"/>
       <c r="BS22" s="4"/>
@@ -3326,7 +3345,9 @@
       <c r="BO23" s="4">
         <v>7.144384827829886E-2</v>
       </c>
-      <c r="BP23" s="4"/>
+      <c r="BP23" s="4">
+        <v>5.2675972786089043E-2</v>
+      </c>
       <c r="BQ23" s="4"/>
       <c r="BR23" s="4"/>
       <c r="BS23" s="4"/>
@@ -3619,7 +3640,9 @@
       <c r="BO24" s="5">
         <v>8.2144334160463295E-2</v>
       </c>
-      <c r="BP24" s="5"/>
+      <c r="BP24" s="5">
+        <v>9.6774470570049731E-2</v>
+      </c>
       <c r="BQ24" s="5"/>
       <c r="BR24" s="5"/>
       <c r="BS24" s="5"/>

--- a/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -272,10 +272,13 @@
     <t>1°Q/4/2022</t>
   </si>
   <si>
-    <t>Última actualización:  05/09/2022</t>
-  </si>
-  <si>
     <t>2°Q/4/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  05/24/2022</t>
+  </si>
+  <si>
+    <t>1°Q/5/2022</t>
   </si>
 </sst>
 </file>
@@ -770,7 +773,7 @@
     </row>
     <row r="11" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:157" x14ac:dyDescent="0.25">
@@ -986,9 +989,11 @@
         <v>80</v>
       </c>
       <c r="BP15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="BQ15" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="BQ15" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="BR15" s="3"/>
       <c r="BS15" s="3"/>
       <c r="BT15" s="3"/>
@@ -1283,7 +1288,9 @@
       <c r="BP16" s="4">
         <v>8.1526660629627656E-2</v>
       </c>
-      <c r="BQ16" s="4"/>
+      <c r="BQ16" s="4">
+        <v>7.6947527348820044E-2</v>
+      </c>
       <c r="BR16" s="4"/>
       <c r="BS16" s="4"/>
       <c r="BT16" s="4"/>
@@ -1578,7 +1585,9 @@
       <c r="BP17" s="4">
         <v>0.12461027517961232</v>
       </c>
-      <c r="BQ17" s="4"/>
+      <c r="BQ17" s="4">
+        <v>0.11522847748775411</v>
+      </c>
       <c r="BR17" s="4"/>
       <c r="BS17" s="4"/>
       <c r="BT17" s="4"/>
@@ -1873,7 +1882,9 @@
       <c r="BP18" s="4">
         <v>5.9049196557764194E-2</v>
       </c>
-      <c r="BQ18" s="4"/>
+      <c r="BQ18" s="4">
+        <v>6.1374732987488523E-2</v>
+      </c>
       <c r="BR18" s="4"/>
       <c r="BS18" s="4"/>
       <c r="BT18" s="4"/>
@@ -2168,7 +2179,9 @@
       <c r="BP19" s="4">
         <v>4.3954743635254756E-2</v>
       </c>
-      <c r="BQ19" s="4"/>
+      <c r="BQ19" s="4">
+        <v>4.4096249681714106E-2</v>
+      </c>
       <c r="BR19" s="4"/>
       <c r="BS19" s="4"/>
       <c r="BT19" s="4"/>
@@ -2463,7 +2476,9 @@
       <c r="BP20" s="4">
         <v>6.3091334011836198E-2</v>
       </c>
-      <c r="BQ20" s="4"/>
+      <c r="BQ20" s="4">
+        <v>5.9516288718117982E-2</v>
+      </c>
       <c r="BR20" s="4"/>
       <c r="BS20" s="4"/>
       <c r="BT20" s="4"/>
@@ -2758,7 +2773,9 @@
       <c r="BP21" s="4">
         <v>5.9909365280072402E-2</v>
       </c>
-      <c r="BQ21" s="4"/>
+      <c r="BQ21" s="4">
+        <v>5.514823370433608E-2</v>
+      </c>
       <c r="BR21" s="4"/>
       <c r="BS21" s="4"/>
       <c r="BT21" s="4"/>
@@ -3053,7 +3070,9 @@
       <c r="BP22" s="4">
         <v>7.2276807803774545E-2</v>
       </c>
-      <c r="BQ22" s="4"/>
+      <c r="BQ22" s="4">
+        <v>7.3273431994362204E-2</v>
+      </c>
       <c r="BR22" s="4"/>
       <c r="BS22" s="4"/>
       <c r="BT22" s="4"/>
@@ -3348,7 +3367,9 @@
       <c r="BP23" s="4">
         <v>5.2675972786089043E-2</v>
       </c>
-      <c r="BQ23" s="4"/>
+      <c r="BQ23" s="4">
+        <v>3.761493196027943E-2</v>
+      </c>
       <c r="BR23" s="4"/>
       <c r="BS23" s="4"/>
       <c r="BT23" s="4"/>
@@ -3643,7 +3664,9 @@
       <c r="BP24" s="5">
         <v>9.6774470570049731E-2</v>
       </c>
-      <c r="BQ24" s="5"/>
+      <c r="BQ24" s="5">
+        <v>9.6651029003869571E-2</v>
+      </c>
       <c r="BR24" s="5"/>
       <c r="BS24" s="5"/>
       <c r="BT24" s="5"/>

--- a/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -275,10 +275,13 @@
     <t>2°Q/4/2022</t>
   </si>
   <si>
-    <t>Última actualización:  05/24/2022</t>
-  </si>
-  <si>
     <t>1°Q/5/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  06/09/2022</t>
+  </si>
+  <si>
+    <t>2°Q/5/2022</t>
   </si>
 </sst>
 </file>
@@ -773,7 +776,7 @@
     </row>
     <row r="11" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:157" x14ac:dyDescent="0.25">
@@ -992,9 +995,11 @@
         <v>81</v>
       </c>
       <c r="BQ15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR15" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="BR15" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="BS15" s="3"/>
       <c r="BT15" s="3"/>
       <c r="BU15" s="3"/>
@@ -1291,7 +1296,9 @@
       <c r="BQ16" s="4">
         <v>7.6947527348820044E-2</v>
       </c>
-      <c r="BR16" s="4"/>
+      <c r="BR16" s="4">
+        <v>7.8416162755848617E-2</v>
+      </c>
       <c r="BS16" s="4"/>
       <c r="BT16" s="4"/>
       <c r="BU16" s="4"/>
@@ -1588,7 +1595,9 @@
       <c r="BQ17" s="4">
         <v>0.11522847748775411</v>
       </c>
-      <c r="BR17" s="4"/>
+      <c r="BR17" s="4">
+        <v>0.11630526377266248</v>
+      </c>
       <c r="BS17" s="4"/>
       <c r="BT17" s="4"/>
       <c r="BU17" s="4"/>
@@ -1885,7 +1894,9 @@
       <c r="BQ18" s="4">
         <v>6.1374732987488523E-2</v>
       </c>
-      <c r="BR18" s="4"/>
+      <c r="BR18" s="4">
+        <v>6.6315739101306503E-2</v>
+      </c>
       <c r="BS18" s="4"/>
       <c r="BT18" s="4"/>
       <c r="BU18" s="4"/>
@@ -2182,7 +2193,9 @@
       <c r="BQ19" s="4">
         <v>4.4096249681714106E-2</v>
       </c>
-      <c r="BR19" s="4"/>
+      <c r="BR19" s="4">
+        <v>4.4196534104340435E-2</v>
+      </c>
       <c r="BS19" s="4"/>
       <c r="BT19" s="4"/>
       <c r="BU19" s="4"/>
@@ -2479,7 +2492,9 @@
       <c r="BQ20" s="4">
         <v>5.9516288718117982E-2</v>
       </c>
-      <c r="BR20" s="4"/>
+      <c r="BR20" s="4">
+        <v>6.1474787363305028E-2</v>
+      </c>
       <c r="BS20" s="4"/>
       <c r="BT20" s="4"/>
       <c r="BU20" s="4"/>
@@ -2776,7 +2791,9 @@
       <c r="BQ21" s="4">
         <v>5.514823370433608E-2</v>
       </c>
-      <c r="BR21" s="4"/>
+      <c r="BR21" s="4">
+        <v>5.7895072585275154E-2</v>
+      </c>
       <c r="BS21" s="4"/>
       <c r="BT21" s="4"/>
       <c r="BU21" s="4"/>
@@ -3073,7 +3090,9 @@
       <c r="BQ22" s="4">
         <v>7.3273431994362204E-2</v>
       </c>
-      <c r="BR22" s="4"/>
+      <c r="BR22" s="4">
+        <v>7.5825792752231225E-2</v>
+      </c>
       <c r="BS22" s="4"/>
       <c r="BT22" s="4"/>
       <c r="BU22" s="4"/>
@@ -3370,7 +3389,9 @@
       <c r="BQ23" s="4">
         <v>3.761493196027943E-2</v>
       </c>
-      <c r="BR23" s="4"/>
+      <c r="BR23" s="4">
+        <v>3.8009624320270774E-2</v>
+      </c>
       <c r="BS23" s="4"/>
       <c r="BT23" s="4"/>
       <c r="BU23" s="4"/>
@@ -3667,7 +3688,9 @@
       <c r="BQ24" s="5">
         <v>9.6651029003869571E-2</v>
       </c>
-      <c r="BR24" s="5"/>
+      <c r="BR24" s="5">
+        <v>9.8572683917312887E-2</v>
+      </c>
       <c r="BS24" s="5"/>
       <c r="BT24" s="5"/>
       <c r="BU24" s="5"/>

--- a/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -278,10 +278,16 @@
     <t>1°Q/5/2022</t>
   </si>
   <si>
-    <t>Última actualización:  06/09/2022</t>
-  </si>
-  <si>
     <t>2°Q/5/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  07/07/2022</t>
+  </si>
+  <si>
+    <t>1°Q/6/2022</t>
+  </si>
+  <si>
+    <t>2°Q/6/2022</t>
   </si>
 </sst>
 </file>
@@ -776,7 +782,7 @@
     </row>
     <row r="11" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:157" x14ac:dyDescent="0.25">
@@ -998,10 +1004,14 @@
         <v>82</v>
       </c>
       <c r="BR15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS15" s="3"/>
-      <c r="BT15" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="BS15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT15" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="BU15" s="3"/>
       <c r="BV15" s="3"/>
       <c r="BW15" s="3"/>
@@ -1299,8 +1309,12 @@
       <c r="BR16" s="4">
         <v>7.8416162755848617E-2</v>
       </c>
-      <c r="BS16" s="4"/>
-      <c r="BT16" s="4"/>
+      <c r="BS16" s="4">
+        <v>8.1980597866643246E-2</v>
+      </c>
+      <c r="BT16" s="4">
+        <v>8.3247858752158788E-2</v>
+      </c>
       <c r="BU16" s="4"/>
       <c r="BV16" s="4"/>
       <c r="BW16" s="4"/>
@@ -1598,8 +1612,12 @@
       <c r="BR17" s="4">
         <v>0.11630526377266248</v>
       </c>
-      <c r="BS17" s="4"/>
-      <c r="BT17" s="4"/>
+      <c r="BS17" s="4">
+        <v>0.12265461837364677</v>
+      </c>
+      <c r="BT17" s="4">
+        <v>0.12879946790821406</v>
+      </c>
       <c r="BU17" s="4"/>
       <c r="BV17" s="4"/>
       <c r="BW17" s="4"/>
@@ -1897,8 +1915,12 @@
       <c r="BR18" s="4">
         <v>6.6315739101306503E-2</v>
       </c>
-      <c r="BS18" s="4"/>
-      <c r="BT18" s="4"/>
+      <c r="BS18" s="4">
+        <v>6.4610448172091939E-2</v>
+      </c>
+      <c r="BT18" s="4">
+        <v>5.6362802080146768E-2</v>
+      </c>
       <c r="BU18" s="4"/>
       <c r="BV18" s="4"/>
       <c r="BW18" s="4"/>
@@ -2196,8 +2218,12 @@
       <c r="BR19" s="4">
         <v>4.4196534104340435E-2</v>
       </c>
-      <c r="BS19" s="4"/>
-      <c r="BT19" s="4"/>
+      <c r="BS19" s="4">
+        <v>4.1834366728307648E-2</v>
+      </c>
+      <c r="BT19" s="4">
+        <v>3.9624703130784811E-2</v>
+      </c>
       <c r="BU19" s="4"/>
       <c r="BV19" s="4"/>
       <c r="BW19" s="4"/>
@@ -2495,8 +2521,12 @@
       <c r="BR20" s="4">
         <v>6.1474787363305028E-2</v>
       </c>
-      <c r="BS20" s="4"/>
-      <c r="BT20" s="4"/>
+      <c r="BS20" s="4">
+        <v>5.9442909416772327E-2</v>
+      </c>
+      <c r="BT20" s="4">
+        <v>5.9137070077989184E-2</v>
+      </c>
       <c r="BU20" s="4"/>
       <c r="BV20" s="4"/>
       <c r="BW20" s="4"/>
@@ -2794,8 +2824,12 @@
       <c r="BR21" s="4">
         <v>5.7895072585275154E-2</v>
       </c>
-      <c r="BS21" s="4"/>
-      <c r="BT21" s="4"/>
+      <c r="BS21" s="4">
+        <v>6.9221722839613031E-2</v>
+      </c>
+      <c r="BT21" s="4">
+        <v>6.4210354282808746E-2</v>
+      </c>
       <c r="BU21" s="4"/>
       <c r="BV21" s="4"/>
       <c r="BW21" s="4"/>
@@ -3093,8 +3127,12 @@
       <c r="BR22" s="4">
         <v>7.5825792752231225E-2</v>
       </c>
-      <c r="BS22" s="4"/>
-      <c r="BT22" s="4"/>
+      <c r="BS22" s="4">
+        <v>8.0582805144254754E-2</v>
+      </c>
+      <c r="BT22" s="4">
+        <v>8.0711869753421706E-2</v>
+      </c>
       <c r="BU22" s="4"/>
       <c r="BV22" s="4"/>
       <c r="BW22" s="4"/>
@@ -3392,8 +3430,12 @@
       <c r="BR23" s="4">
         <v>3.8009624320270774E-2</v>
       </c>
-      <c r="BS23" s="4"/>
-      <c r="BT23" s="4"/>
+      <c r="BS23" s="4">
+        <v>4.3638767976196924E-2</v>
+      </c>
+      <c r="BT23" s="4">
+        <v>3.8129404461970884E-2</v>
+      </c>
       <c r="BU23" s="4"/>
       <c r="BV23" s="4"/>
       <c r="BW23" s="4"/>
@@ -3691,8 +3733,12 @@
       <c r="BR24" s="5">
         <v>9.8572683917312887E-2</v>
       </c>
-      <c r="BS24" s="5"/>
-      <c r="BT24" s="5"/>
+      <c r="BS24" s="5">
+        <v>0.10184628668658835</v>
+      </c>
+      <c r="BT24" s="5">
+        <v>0.11406134719595662</v>
+      </c>
       <c r="BU24" s="5"/>
       <c r="BV24" s="5"/>
       <c r="BW24" s="5"/>

--- a/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -281,13 +281,19 @@
     <t>2°Q/5/2022</t>
   </si>
   <si>
-    <t>Última actualización:  07/07/2022</t>
-  </si>
-  <si>
     <t>1°Q/6/2022</t>
   </si>
   <si>
     <t>2°Q/6/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  08/09/2022</t>
+  </si>
+  <si>
+    <t>1°Q/7/2022</t>
+  </si>
+  <si>
+    <t>2°Q/7/2022</t>
   </si>
 </sst>
 </file>
@@ -782,7 +788,7 @@
     </row>
     <row r="11" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:157" x14ac:dyDescent="0.25">
@@ -1007,13 +1013,17 @@
         <v>83</v>
       </c>
       <c r="BS15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT15" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="BT15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="BU15" s="3"/>
-      <c r="BV15" s="3"/>
+      <c r="BU15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV15" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="BW15" s="3"/>
       <c r="BX15" s="3"/>
       <c r="BY15" s="3"/>
@@ -1315,8 +1325,12 @@
       <c r="BT16" s="4">
         <v>8.3247858752158788E-2</v>
       </c>
-      <c r="BU16" s="4"/>
-      <c r="BV16" s="4"/>
+      <c r="BU16" s="4">
+        <v>8.609862333164231E-2</v>
+      </c>
+      <c r="BV16" s="4">
+        <v>8.3190873251229869E-2</v>
+      </c>
       <c r="BW16" s="4"/>
       <c r="BX16" s="4"/>
       <c r="BY16" s="4"/>
@@ -1618,8 +1632,12 @@
       <c r="BT17" s="4">
         <v>0.12879946790821406</v>
       </c>
-      <c r="BU17" s="4"/>
-      <c r="BV17" s="4"/>
+      <c r="BU17" s="4">
+        <v>0.1397214854111406</v>
+      </c>
+      <c r="BV17" s="4">
+        <v>0.13177510119458979</v>
+      </c>
       <c r="BW17" s="4"/>
       <c r="BX17" s="4"/>
       <c r="BY17" s="4"/>
@@ -1921,8 +1939,12 @@
       <c r="BT18" s="4">
         <v>5.6362802080146768E-2</v>
       </c>
-      <c r="BU18" s="4"/>
-      <c r="BV18" s="4"/>
+      <c r="BU18" s="4">
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BV18" s="4">
+        <v>4.1232411450752071E-2</v>
+      </c>
       <c r="BW18" s="4"/>
       <c r="BX18" s="4"/>
       <c r="BY18" s="4"/>
@@ -2224,8 +2246,12 @@
       <c r="BT19" s="4">
         <v>3.9624703130784811E-2</v>
       </c>
-      <c r="BU19" s="4"/>
-      <c r="BV19" s="4"/>
+      <c r="BU19" s="4">
+        <v>3.6659365911457353E-2</v>
+      </c>
+      <c r="BV19" s="4">
+        <v>3.4637231888472675E-2</v>
+      </c>
       <c r="BW19" s="4"/>
       <c r="BX19" s="4"/>
       <c r="BY19" s="4"/>
@@ -2527,8 +2553,12 @@
       <c r="BT20" s="4">
         <v>5.9137070077989184E-2</v>
       </c>
-      <c r="BU20" s="4"/>
-      <c r="BV20" s="4"/>
+      <c r="BU20" s="4">
+        <v>6.3921649253313007E-2</v>
+      </c>
+      <c r="BV20" s="4">
+        <v>6.1279505555920766E-2</v>
+      </c>
       <c r="BW20" s="4"/>
       <c r="BX20" s="4"/>
       <c r="BY20" s="4"/>
@@ -2830,8 +2860,12 @@
       <c r="BT21" s="4">
         <v>6.4210354282808746E-2</v>
       </c>
-      <c r="BU21" s="4"/>
-      <c r="BV21" s="4"/>
+      <c r="BU21" s="4">
+        <v>8.0487604287554859E-2</v>
+      </c>
+      <c r="BV21" s="4">
+        <v>6.8529022670846818E-2</v>
+      </c>
       <c r="BW21" s="4"/>
       <c r="BX21" s="4"/>
       <c r="BY21" s="4"/>
@@ -3133,8 +3167,12 @@
       <c r="BT22" s="4">
         <v>8.0711869753421706E-2</v>
       </c>
-      <c r="BU22" s="4"/>
-      <c r="BV22" s="4"/>
+      <c r="BU22" s="4">
+        <v>7.4560373106406619E-2</v>
+      </c>
+      <c r="BV22" s="4">
+        <v>8.2225986135605611E-2</v>
+      </c>
       <c r="BW22" s="4"/>
       <c r="BX22" s="4"/>
       <c r="BY22" s="4"/>
@@ -3436,8 +3474,12 @@
       <c r="BT23" s="4">
         <v>3.8129404461970884E-2</v>
       </c>
-      <c r="BU23" s="4"/>
-      <c r="BV23" s="4"/>
+      <c r="BU23" s="4">
+        <v>3.9322515693474003E-2</v>
+      </c>
+      <c r="BV23" s="4">
+        <v>3.9566271674978282E-2</v>
+      </c>
       <c r="BW23" s="4"/>
       <c r="BX23" s="4"/>
       <c r="BY23" s="4"/>
@@ -3739,8 +3781,12 @@
       <c r="BT24" s="5">
         <v>0.11406134719595662</v>
       </c>
-      <c r="BU24" s="5"/>
-      <c r="BV24" s="5"/>
+      <c r="BU24" s="5">
+        <v>0.10832960559076987</v>
+      </c>
+      <c r="BV24" s="5">
+        <v>0.11263149902562075</v>
+      </c>
       <c r="BW24" s="5"/>
       <c r="BX24" s="5"/>
       <c r="BY24" s="5"/>

--- a/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -287,13 +287,19 @@
     <t>2°Q/6/2022</t>
   </si>
   <si>
-    <t>Última actualización:  08/09/2022</t>
-  </si>
-  <si>
     <t>1°Q/7/2022</t>
   </si>
   <si>
     <t>2°Q/7/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  09/08/2022</t>
+  </si>
+  <si>
+    <t>1°Q/8/2022</t>
+  </si>
+  <si>
+    <t>2°Q/8/2022</t>
   </si>
 </sst>
 </file>
@@ -788,7 +794,7 @@
     </row>
     <row r="11" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:157" x14ac:dyDescent="0.25">
@@ -1019,13 +1025,17 @@
         <v>85</v>
       </c>
       <c r="BU15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="BV15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BW15" s="3"/>
-      <c r="BX15" s="3"/>
+      <c r="BW15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX15" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="BY15" s="3"/>
       <c r="BZ15" s="3"/>
       <c r="CA15" s="3"/>
@@ -1331,8 +1341,12 @@
       <c r="BV16" s="4">
         <v>8.3190873251229869E-2</v>
       </c>
-      <c r="BW16" s="4"/>
-      <c r="BX16" s="4"/>
+      <c r="BW16" s="4">
+        <v>8.5966579206583127E-2</v>
+      </c>
+      <c r="BX16" s="4">
+        <v>8.4662843239485586E-2</v>
+      </c>
       <c r="BY16" s="4"/>
       <c r="BZ16" s="4"/>
       <c r="CA16" s="4"/>
@@ -1638,8 +1652,12 @@
       <c r="BV17" s="4">
         <v>0.13177510119458979</v>
       </c>
-      <c r="BW17" s="4"/>
-      <c r="BX17" s="4"/>
+      <c r="BW17" s="4">
+        <v>0.12958066971703608</v>
+      </c>
+      <c r="BX17" s="4">
+        <v>0.13598232555864431</v>
+      </c>
       <c r="BY17" s="4"/>
       <c r="BZ17" s="4"/>
       <c r="CA17" s="4"/>
@@ -1945,8 +1963,12 @@
       <c r="BV18" s="4">
         <v>4.1232411450752071E-2</v>
       </c>
-      <c r="BW18" s="4"/>
-      <c r="BX18" s="4"/>
+      <c r="BW18" s="4">
+        <v>4.5616795885468742E-2</v>
+      </c>
+      <c r="BX18" s="4">
+        <v>3.7879574480135014E-2</v>
+      </c>
       <c r="BY18" s="4"/>
       <c r="BZ18" s="4"/>
       <c r="CA18" s="4"/>
@@ -2252,8 +2274,12 @@
       <c r="BV19" s="4">
         <v>3.4637231888472675E-2</v>
       </c>
-      <c r="BW19" s="4"/>
-      <c r="BX19" s="4"/>
+      <c r="BW19" s="4">
+        <v>4.4645848234899921E-2</v>
+      </c>
+      <c r="BX19" s="4">
+        <v>3.767021170857765E-2</v>
+      </c>
       <c r="BY19" s="4"/>
       <c r="BZ19" s="4"/>
       <c r="CA19" s="4"/>
@@ -2559,8 +2585,12 @@
       <c r="BV20" s="4">
         <v>6.1279505555920766E-2</v>
       </c>
-      <c r="BW20" s="4"/>
-      <c r="BX20" s="4"/>
+      <c r="BW20" s="4">
+        <v>5.5084351691683908E-2</v>
+      </c>
+      <c r="BX20" s="4">
+        <v>4.568842085815894E-2</v>
+      </c>
       <c r="BY20" s="4"/>
       <c r="BZ20" s="4"/>
       <c r="CA20" s="4"/>
@@ -2866,8 +2896,12 @@
       <c r="BV21" s="4">
         <v>6.8529022670846818E-2</v>
       </c>
-      <c r="BW21" s="4"/>
-      <c r="BX21" s="4"/>
+      <c r="BW21" s="4">
+        <v>7.9639613561529821E-2</v>
+      </c>
+      <c r="BX21" s="4">
+        <v>7.7937160329168753E-2</v>
+      </c>
       <c r="BY21" s="4"/>
       <c r="BZ21" s="4"/>
       <c r="CA21" s="4"/>
@@ -3173,8 +3207,12 @@
       <c r="BV22" s="4">
         <v>8.2225986135605611E-2</v>
       </c>
-      <c r="BW22" s="4"/>
-      <c r="BX22" s="4"/>
+      <c r="BW22" s="4">
+        <v>8.3335517865100739E-2</v>
+      </c>
+      <c r="BX22" s="4">
+        <v>8.2933785959263595E-2</v>
+      </c>
       <c r="BY22" s="4"/>
       <c r="BZ22" s="4"/>
       <c r="CA22" s="4"/>
@@ -3480,8 +3518,12 @@
       <c r="BV23" s="4">
         <v>3.9566271674978282E-2</v>
       </c>
-      <c r="BW23" s="4"/>
-      <c r="BX23" s="4"/>
+      <c r="BW23" s="4">
+        <v>4.6391658114645962E-2</v>
+      </c>
+      <c r="BX23" s="4">
+        <v>3.6122817579771205E-2</v>
+      </c>
       <c r="BY23" s="4"/>
       <c r="BZ23" s="4"/>
       <c r="CA23" s="4"/>
@@ -3787,8 +3829,12 @@
       <c r="BV24" s="5">
         <v>0.11263149902562075</v>
       </c>
-      <c r="BW24" s="5"/>
-      <c r="BX24" s="5"/>
+      <c r="BW24" s="5">
+        <v>0.10920833823257681</v>
+      </c>
+      <c r="BX24" s="5">
+        <v>0.10831004534881772</v>
+      </c>
       <c r="BY24" s="5"/>
       <c r="BZ24" s="5"/>
       <c r="CA24" s="5"/>

--- a/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -293,13 +293,25 @@
     <t>2°Q/7/2022</t>
   </si>
   <si>
-    <t>Última actualización:  09/08/2022</t>
-  </si>
-  <si>
     <t>1°Q/8/2022</t>
   </si>
   <si>
     <t>2°Q/8/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  11/09/2022</t>
+  </si>
+  <si>
+    <t>1°Q/9/2022</t>
+  </si>
+  <si>
+    <t>2°Q/9/2022</t>
+  </si>
+  <si>
+    <t>1°Q/10/2022</t>
+  </si>
+  <si>
+    <t>2°Q/10/2022</t>
   </si>
 </sst>
 </file>
@@ -794,7 +806,7 @@
     </row>
     <row r="11" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:157" x14ac:dyDescent="0.25">
@@ -1031,15 +1043,23 @@
         <v>87</v>
       </c>
       <c r="BW15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX15" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="BX15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="BY15" s="3"/>
-      <c r="BZ15" s="3"/>
-      <c r="CA15" s="3"/>
-      <c r="CB15" s="3"/>
+      <c r="BY15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="CB15" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="CC15" s="3"/>
       <c r="CD15" s="3"/>
       <c r="CE15" s="3"/>
@@ -1347,10 +1367,18 @@
       <c r="BX16" s="4">
         <v>8.4662843239485586E-2</v>
       </c>
-      <c r="BY16" s="4"/>
-      <c r="BZ16" s="4"/>
-      <c r="CA16" s="4"/>
-      <c r="CB16" s="4"/>
+      <c r="BY16" s="4">
+        <v>8.5083705937402554E-2</v>
+      </c>
+      <c r="BZ16" s="4">
+        <v>8.4633402190165796E-2</v>
+      </c>
+      <c r="CA16" s="4">
+        <v>8.3849460327851899E-2</v>
+      </c>
+      <c r="CB16" s="4">
+        <v>8.3823289587749983E-2</v>
+      </c>
       <c r="CC16" s="4"/>
       <c r="CD16" s="4"/>
       <c r="CE16" s="4"/>
@@ -1658,10 +1686,18 @@
       <c r="BX17" s="4">
         <v>0.13598232555864431</v>
       </c>
-      <c r="BY17" s="4"/>
-      <c r="BZ17" s="4"/>
-      <c r="CA17" s="4"/>
-      <c r="CB17" s="4"/>
+      <c r="BY17" s="4">
+        <v>0.13943328533424437</v>
+      </c>
+      <c r="BZ17" s="4">
+        <v>0.1409116288102541</v>
+      </c>
+      <c r="CA17" s="4">
+        <v>0.1406523686908232</v>
+      </c>
+      <c r="CB17" s="4">
+        <v>0.14429991242377249</v>
+      </c>
       <c r="CC17" s="4"/>
       <c r="CD17" s="4"/>
       <c r="CE17" s="4"/>
@@ -1969,10 +2005,18 @@
       <c r="BX18" s="4">
         <v>3.7879574480135014E-2</v>
       </c>
-      <c r="BY18" s="4"/>
-      <c r="BZ18" s="4"/>
-      <c r="CA18" s="4"/>
-      <c r="CB18" s="4"/>
+      <c r="BY18" s="4">
+        <v>5.0909364055472528E-2</v>
+      </c>
+      <c r="BZ18" s="4">
+        <v>5.7212518262779177E-2</v>
+      </c>
+      <c r="CA18" s="4">
+        <v>6.6372176246924708E-2</v>
+      </c>
+      <c r="CB18" s="4">
+        <v>6.9196822594880691E-2</v>
+      </c>
       <c r="CC18" s="4"/>
       <c r="CD18" s="4"/>
       <c r="CE18" s="4"/>
@@ -2280,10 +2324,18 @@
       <c r="BX19" s="4">
         <v>3.767021170857765E-2</v>
       </c>
-      <c r="BY19" s="4"/>
-      <c r="BZ19" s="4"/>
-      <c r="CA19" s="4"/>
-      <c r="CB19" s="4"/>
+      <c r="BY19" s="4">
+        <v>3.5752823537875011E-2</v>
+      </c>
+      <c r="BZ19" s="4">
+        <v>2.4452022303967702E-2</v>
+      </c>
+      <c r="CA19" s="4">
+        <v>1.3491265384581119E-2</v>
+      </c>
+      <c r="CB19" s="4">
+        <v>8.6509027993435517E-3</v>
+      </c>
       <c r="CC19" s="4"/>
       <c r="CD19" s="4"/>
       <c r="CE19" s="4"/>
@@ -2591,10 +2643,18 @@
       <c r="BX20" s="4">
         <v>4.568842085815894E-2</v>
       </c>
-      <c r="BY20" s="4"/>
-      <c r="BZ20" s="4"/>
-      <c r="CA20" s="4"/>
-      <c r="CB20" s="4"/>
+      <c r="BY20" s="4">
+        <v>3.4006298811235958E-2</v>
+      </c>
+      <c r="BZ20" s="4">
+        <v>3.4794445956983333E-2</v>
+      </c>
+      <c r="CA20" s="4">
+        <v>5.0466194061292047E-2</v>
+      </c>
+      <c r="CB20" s="4">
+        <v>5.4349019320843128E-2</v>
+      </c>
       <c r="CC20" s="4"/>
       <c r="CD20" s="4"/>
       <c r="CE20" s="4"/>
@@ -2902,10 +2962,18 @@
       <c r="BX21" s="4">
         <v>7.7937160329168753E-2</v>
       </c>
-      <c r="BY21" s="4"/>
-      <c r="BZ21" s="4"/>
-      <c r="CA21" s="4"/>
-      <c r="CB21" s="4"/>
+      <c r="BY21" s="4">
+        <v>7.7207418305996089E-2</v>
+      </c>
+      <c r="BZ21" s="4">
+        <v>7.691748322940728E-2</v>
+      </c>
+      <c r="CA21" s="4">
+        <v>7.6436911148176412E-2</v>
+      </c>
+      <c r="CB21" s="4">
+        <v>7.5143308508237361E-2</v>
+      </c>
       <c r="CC21" s="4"/>
       <c r="CD21" s="4"/>
       <c r="CE21" s="4"/>
@@ -3213,10 +3281,18 @@
       <c r="BX22" s="4">
         <v>8.2933785959263595E-2</v>
       </c>
-      <c r="BY22" s="4"/>
-      <c r="BZ22" s="4"/>
-      <c r="CA22" s="4"/>
-      <c r="CB22" s="4"/>
+      <c r="BY22" s="4">
+        <v>7.8866253940256703E-2</v>
+      </c>
+      <c r="BZ22" s="4">
+        <v>8.6137079878166878E-2</v>
+      </c>
+      <c r="CA22" s="4">
+        <v>8.2409221297138568E-2</v>
+      </c>
+      <c r="CB22" s="4">
+        <v>7.8140377463660204E-2</v>
+      </c>
       <c r="CC22" s="4"/>
       <c r="CD22" s="4"/>
       <c r="CE22" s="4"/>
@@ -3524,10 +3600,18 @@
       <c r="BX23" s="4">
         <v>3.6122817579771205E-2</v>
       </c>
-      <c r="BY23" s="4"/>
-      <c r="BZ23" s="4"/>
-      <c r="CA23" s="4"/>
-      <c r="CB23" s="4"/>
+      <c r="BY23" s="4">
+        <v>3.8839013652777421E-2</v>
+      </c>
+      <c r="BZ23" s="4">
+        <v>3.6645601801409189E-2</v>
+      </c>
+      <c r="CA23" s="4">
+        <v>3.9390077460524031E-2</v>
+      </c>
+      <c r="CB23" s="4">
+        <v>3.9824882218879365E-2</v>
+      </c>
       <c r="CC23" s="4"/>
       <c r="CD23" s="4"/>
       <c r="CE23" s="4"/>
@@ -3835,10 +3919,18 @@
       <c r="BX24" s="5">
         <v>0.10831004534881772</v>
       </c>
-      <c r="BY24" s="5"/>
-      <c r="BZ24" s="5"/>
-      <c r="CA24" s="5"/>
-      <c r="CB24" s="5"/>
+      <c r="BY24" s="5">
+        <v>0.10793576211172828</v>
+      </c>
+      <c r="BZ24" s="5">
+        <v>0.1136257035647279</v>
+      </c>
+      <c r="CA24" s="5">
+        <v>0.12430992452103129</v>
+      </c>
+      <c r="CB24" s="5">
+        <v>0.12512700078282446</v>
+      </c>
       <c r="CC24" s="5"/>
       <c r="CD24" s="5"/>
       <c r="CE24" s="5"/>

--- a/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -299,9 +299,6 @@
     <t>2°Q/8/2022</t>
   </si>
   <si>
-    <t>Última actualización:  11/09/2022</t>
-  </si>
-  <si>
     <t>1°Q/9/2022</t>
   </si>
   <si>
@@ -312,6 +309,21 @@
   </si>
   <si>
     <t>2°Q/10/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  01/09/2023</t>
+  </si>
+  <si>
+    <t>1°Q/11/2022</t>
+  </si>
+  <si>
+    <t>2°Q/11/2022</t>
+  </si>
+  <si>
+    <t>1°Q/12/2022</t>
+  </si>
+  <si>
+    <t>2°Q/12/2022</t>
   </si>
 </sst>
 </file>
@@ -806,7 +818,7 @@
     </row>
     <row r="11" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:157" x14ac:dyDescent="0.25">
@@ -1049,21 +1061,29 @@
         <v>89</v>
       </c>
       <c r="BY15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BZ15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="BZ15" s="3" t="s">
+      <c r="CA15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CA15" s="3" t="s">
+      <c r="CB15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="CB15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="CC15" s="3"/>
-      <c r="CD15" s="3"/>
-      <c r="CE15" s="3"/>
-      <c r="CF15" s="3"/>
+      <c r="CC15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="CE15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF15" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="CG15" s="3"/>
       <c r="CH15" s="3"/>
       <c r="CI15" s="3"/>
@@ -1379,10 +1399,18 @@
       <c r="CB16" s="4">
         <v>8.3823289587749983E-2</v>
       </c>
-      <c r="CC16" s="4"/>
-      <c r="CD16" s="4"/>
-      <c r="CE16" s="4"/>
-      <c r="CF16" s="4"/>
+      <c r="CC16" s="4">
+        <v>8.4436490675252163E-2</v>
+      </c>
+      <c r="CD16" s="4">
+        <v>7.6764813850448643E-2</v>
+      </c>
+      <c r="CE16" s="4">
+        <v>8.0698020855501262E-2</v>
+      </c>
+      <c r="CF16" s="4">
+        <v>8.1172645090995754E-2</v>
+      </c>
       <c r="CG16" s="4"/>
       <c r="CH16" s="4"/>
       <c r="CI16" s="4"/>
@@ -1698,10 +1726,18 @@
       <c r="CB17" s="4">
         <v>0.14429991242377249</v>
       </c>
-      <c r="CC17" s="4"/>
-      <c r="CD17" s="4"/>
-      <c r="CE17" s="4"/>
-      <c r="CF17" s="4"/>
+      <c r="CC17" s="4">
+        <v>0.13858246331546709</v>
+      </c>
+      <c r="CD17" s="4">
+        <v>0.1236013654466146</v>
+      </c>
+      <c r="CE17" s="4">
+        <v>0.12926428116122235</v>
+      </c>
+      <c r="CF17" s="4">
+        <v>0.12955179876423184</v>
+      </c>
       <c r="CG17" s="4"/>
       <c r="CH17" s="4"/>
       <c r="CI17" s="4"/>
@@ -2017,10 +2053,18 @@
       <c r="CB18" s="4">
         <v>6.9196822594880691E-2</v>
       </c>
-      <c r="CC18" s="4"/>
-      <c r="CD18" s="4"/>
-      <c r="CE18" s="4"/>
-      <c r="CF18" s="4"/>
+      <c r="CC18" s="4">
+        <v>7.9721911160880898E-2</v>
+      </c>
+      <c r="CD18" s="4">
+        <v>6.5349388628016092E-2</v>
+      </c>
+      <c r="CE18" s="4">
+        <v>6.6733288918498834E-2</v>
+      </c>
+      <c r="CF18" s="4">
+        <v>7.0942843094506935E-2</v>
+      </c>
       <c r="CG18" s="4"/>
       <c r="CH18" s="4"/>
       <c r="CI18" s="4"/>
@@ -2336,10 +2380,18 @@
       <c r="CB19" s="4">
         <v>8.6509027993435517E-3</v>
       </c>
-      <c r="CC19" s="4"/>
-      <c r="CD19" s="4"/>
-      <c r="CE19" s="4"/>
-      <c r="CF19" s="4"/>
+      <c r="CC19" s="4">
+        <v>5.5478256245733437E-3</v>
+      </c>
+      <c r="CD19" s="4">
+        <v>8.9731162236430517E-3</v>
+      </c>
+      <c r="CE19" s="4">
+        <v>1.5061673020856814E-2</v>
+      </c>
+      <c r="CF19" s="4">
+        <v>1.3806138061380757E-2</v>
+      </c>
       <c r="CG19" s="4"/>
       <c r="CH19" s="4"/>
       <c r="CI19" s="4"/>
@@ -2655,10 +2707,18 @@
       <c r="CB20" s="4">
         <v>5.4349019320843128E-2</v>
       </c>
-      <c r="CC20" s="4"/>
-      <c r="CD20" s="4"/>
-      <c r="CE20" s="4"/>
-      <c r="CF20" s="4"/>
+      <c r="CC20" s="4">
+        <v>7.3543992361927213E-2</v>
+      </c>
+      <c r="CD20" s="4">
+        <v>5.0395347557284031E-2</v>
+      </c>
+      <c r="CE20" s="4">
+        <v>6.9791001186456203E-2</v>
+      </c>
+      <c r="CF20" s="4">
+        <v>7.3630688035013048E-2</v>
+      </c>
       <c r="CG20" s="4"/>
       <c r="CH20" s="4"/>
       <c r="CI20" s="4"/>
@@ -2974,10 +3034,18 @@
       <c r="CB21" s="4">
         <v>7.5143308508237361E-2</v>
       </c>
-      <c r="CC21" s="4"/>
-      <c r="CD21" s="4"/>
-      <c r="CE21" s="4"/>
-      <c r="CF21" s="4"/>
+      <c r="CC21" s="4">
+        <v>8.4100010823682236E-2</v>
+      </c>
+      <c r="CD21" s="4">
+        <v>7.9919311798388071E-2</v>
+      </c>
+      <c r="CE21" s="4">
+        <v>8.4970486391445554E-2</v>
+      </c>
+      <c r="CF21" s="4">
+        <v>9.1488291008428924E-2</v>
+      </c>
       <c r="CG21" s="4"/>
       <c r="CH21" s="4"/>
       <c r="CI21" s="4"/>
@@ -3293,10 +3361,18 @@
       <c r="CB22" s="4">
         <v>7.8140377463660204E-2</v>
       </c>
-      <c r="CC22" s="4"/>
-      <c r="CD22" s="4"/>
-      <c r="CE22" s="4"/>
-      <c r="CF22" s="4"/>
+      <c r="CC22" s="4">
+        <v>8.4284146532652926E-2</v>
+      </c>
+      <c r="CD22" s="4">
+        <v>7.2811692997939215E-2</v>
+      </c>
+      <c r="CE22" s="4">
+        <v>6.9003266987906153E-2</v>
+      </c>
+      <c r="CF22" s="4">
+        <v>6.576636018543125E-2</v>
+      </c>
       <c r="CG22" s="4"/>
       <c r="CH22" s="4"/>
       <c r="CI22" s="4"/>
@@ -3612,10 +3688,18 @@
       <c r="CB23" s="4">
         <v>3.9824882218879365E-2</v>
       </c>
-      <c r="CC23" s="4"/>
-      <c r="CD23" s="4"/>
-      <c r="CE23" s="4"/>
-      <c r="CF23" s="4"/>
+      <c r="CC23" s="4">
+        <v>4.6362268841708909E-2</v>
+      </c>
+      <c r="CD23" s="4">
+        <v>4.1274680472999092E-2</v>
+      </c>
+      <c r="CE23" s="4">
+        <v>3.860597464921911E-2</v>
+      </c>
+      <c r="CF23" s="4">
+        <v>3.5815743104750108E-2</v>
+      </c>
       <c r="CG23" s="4"/>
       <c r="CH23" s="4"/>
       <c r="CI23" s="4"/>
@@ -3931,10 +4015,18 @@
       <c r="CB24" s="5">
         <v>0.12512700078282446</v>
       </c>
-      <c r="CC24" s="5"/>
-      <c r="CD24" s="5"/>
-      <c r="CE24" s="5"/>
-      <c r="CF24" s="5"/>
+      <c r="CC24" s="5">
+        <v>0.12290082022165016</v>
+      </c>
+      <c r="CD24" s="5">
+        <v>0.12484383144552091</v>
+      </c>
+      <c r="CE24" s="5">
+        <v>0.12597522555956919</v>
+      </c>
+      <c r="CF24" s="5">
+        <v>0.13078331436488688</v>
+      </c>
       <c r="CG24" s="5"/>
       <c r="CH24" s="5"/>
       <c r="CI24" s="5"/>

--- a/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -311,9 +311,6 @@
     <t>2°Q/10/2022</t>
   </si>
   <si>
-    <t>Última actualización:  01/09/2023</t>
-  </si>
-  <si>
     <t>1°Q/11/2022</t>
   </si>
   <si>
@@ -324,6 +321,15 @@
   </si>
   <si>
     <t>2°Q/12/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  02/09/2023</t>
+  </si>
+  <si>
+    <t>1°Q/1/2023</t>
+  </si>
+  <si>
+    <t>2°Q/1/2023</t>
   </si>
 </sst>
 </file>
@@ -818,7 +824,7 @@
     </row>
     <row r="11" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:157" x14ac:dyDescent="0.25">
@@ -1073,19 +1079,23 @@
         <v>93</v>
       </c>
       <c r="CC15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="CD15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="CD15" s="3" t="s">
+      <c r="CE15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="CE15" s="3" t="s">
+      <c r="CF15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="CF15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="CG15" s="3"/>
-      <c r="CH15" s="3"/>
+      <c r="CG15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH15" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="CI15" s="3"/>
       <c r="CJ15" s="3"/>
       <c r="CK15" s="3"/>
@@ -1411,8 +1421,12 @@
       <c r="CF16" s="4">
         <v>8.1172645090995754E-2</v>
       </c>
-      <c r="CG16" s="4"/>
-      <c r="CH16" s="4"/>
+      <c r="CG16" s="4">
+        <v>8.3916262012292409E-2</v>
+      </c>
+      <c r="CH16" s="4">
+        <v>8.3809507708953124E-2</v>
+      </c>
       <c r="CI16" s="4"/>
       <c r="CJ16" s="4"/>
       <c r="CK16" s="4"/>
@@ -1738,8 +1752,12 @@
       <c r="CF17" s="4">
         <v>0.12955179876423184</v>
       </c>
-      <c r="CG17" s="4"/>
-      <c r="CH17" s="4"/>
+      <c r="CG17" s="4">
+        <v>0.12769750568305671</v>
+      </c>
+      <c r="CH17" s="4">
+        <v>0.12851302816628252</v>
+      </c>
       <c r="CI17" s="4"/>
       <c r="CJ17" s="4"/>
       <c r="CK17" s="4"/>
@@ -2065,8 +2083,12 @@
       <c r="CF18" s="4">
         <v>7.0942843094506935E-2</v>
       </c>
-      <c r="CG18" s="4"/>
-      <c r="CH18" s="4"/>
+      <c r="CG18" s="4">
+        <v>9.4398142862579304E-2</v>
+      </c>
+      <c r="CH18" s="4">
+        <v>0.11380268687432094</v>
+      </c>
       <c r="CI18" s="4"/>
       <c r="CJ18" s="4"/>
       <c r="CK18" s="4"/>
@@ -2392,8 +2414,12 @@
       <c r="CF19" s="4">
         <v>1.3806138061380757E-2</v>
       </c>
-      <c r="CG19" s="4"/>
-      <c r="CH19" s="4"/>
+      <c r="CG19" s="4">
+        <v>1.660574600123943E-2</v>
+      </c>
+      <c r="CH19" s="4">
+        <v>1.6589303373989894E-2</v>
+      </c>
       <c r="CI19" s="4"/>
       <c r="CJ19" s="4"/>
       <c r="CK19" s="4"/>
@@ -2719,8 +2745,12 @@
       <c r="CF20" s="4">
         <v>7.3630688035013048E-2</v>
       </c>
-      <c r="CG20" s="4"/>
-      <c r="CH20" s="4"/>
+      <c r="CG20" s="4">
+        <v>7.9718154186239287E-2</v>
+      </c>
+      <c r="CH20" s="4">
+        <v>7.1249359021317238E-2</v>
+      </c>
       <c r="CI20" s="4"/>
       <c r="CJ20" s="4"/>
       <c r="CK20" s="4"/>
@@ -3046,8 +3076,12 @@
       <c r="CF21" s="4">
         <v>9.1488291008428924E-2</v>
       </c>
-      <c r="CG21" s="4"/>
-      <c r="CH21" s="4"/>
+      <c r="CG21" s="4">
+        <v>9.9816163346897913E-2</v>
+      </c>
+      <c r="CH21" s="4">
+        <v>9.327869582646664E-2</v>
+      </c>
       <c r="CI21" s="4"/>
       <c r="CJ21" s="4"/>
       <c r="CK21" s="4"/>
@@ -3373,8 +3407,12 @@
       <c r="CF22" s="4">
         <v>6.576636018543125E-2</v>
       </c>
-      <c r="CG22" s="4"/>
-      <c r="CH22" s="4"/>
+      <c r="CG22" s="4">
+        <v>6.2528253285910385E-2</v>
+      </c>
+      <c r="CH22" s="4">
+        <v>6.3105680957688426E-2</v>
+      </c>
       <c r="CI22" s="4"/>
       <c r="CJ22" s="4"/>
       <c r="CK22" s="4"/>
@@ -3700,8 +3738,12 @@
       <c r="CF23" s="4">
         <v>3.5815743104750108E-2</v>
       </c>
-      <c r="CG23" s="4"/>
-      <c r="CH23" s="4"/>
+      <c r="CG23" s="4">
+        <v>3.91496355968175E-2</v>
+      </c>
+      <c r="CH23" s="4">
+        <v>4.0762555640483811E-2</v>
+      </c>
       <c r="CI23" s="4"/>
       <c r="CJ23" s="4"/>
       <c r="CK23" s="4"/>
@@ -4027,8 +4069,12 @@
       <c r="CF24" s="5">
         <v>0.13078331436488688</v>
       </c>
-      <c r="CG24" s="5"/>
-      <c r="CH24" s="5"/>
+      <c r="CG24" s="5">
+        <v>0.14200352936348337</v>
+      </c>
+      <c r="CH24" s="5">
+        <v>0.13458319111934602</v>
+      </c>
       <c r="CI24" s="5"/>
       <c r="CJ24" s="5"/>
       <c r="CK24" s="5"/>

--- a/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -323,13 +323,16 @@
     <t>2°Q/12/2022</t>
   </si>
   <si>
-    <t>Última actualización:  02/09/2023</t>
-  </si>
-  <si>
     <t>1°Q/1/2023</t>
   </si>
   <si>
     <t>2°Q/1/2023</t>
+  </si>
+  <si>
+    <t>Última actualización:  02/23/2023</t>
+  </si>
+  <si>
+    <t>1°Q/2/2023</t>
   </si>
 </sst>
 </file>
@@ -824,7 +827,7 @@
     </row>
     <row r="11" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:157" x14ac:dyDescent="0.25">
@@ -1091,12 +1094,14 @@
         <v>97</v>
       </c>
       <c r="CG15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="CH15" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="CH15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="CI15" s="3"/>
+      <c r="CI15" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="CJ15" s="3"/>
       <c r="CK15" s="3"/>
       <c r="CL15" s="3"/>
@@ -1427,7 +1432,9 @@
       <c r="CH16" s="4">
         <v>8.3809507708953124E-2</v>
       </c>
-      <c r="CI16" s="4"/>
+      <c r="CI16" s="4">
+        <v>8.1314675446848561E-2</v>
+      </c>
       <c r="CJ16" s="4"/>
       <c r="CK16" s="4"/>
       <c r="CL16" s="4"/>
@@ -1758,7 +1765,9 @@
       <c r="CH17" s="4">
         <v>0.12851302816628252</v>
       </c>
-      <c r="CI17" s="4"/>
+      <c r="CI17" s="4">
+        <v>0.12015411472472382</v>
+      </c>
       <c r="CJ17" s="4"/>
       <c r="CK17" s="4"/>
       <c r="CL17" s="4"/>
@@ -2089,7 +2098,9 @@
       <c r="CH18" s="4">
         <v>0.11380268687432094</v>
       </c>
-      <c r="CI18" s="4"/>
+      <c r="CI18" s="4">
+        <v>0.12129196688640209</v>
+      </c>
       <c r="CJ18" s="4"/>
       <c r="CK18" s="4"/>
       <c r="CL18" s="4"/>
@@ -2420,7 +2431,9 @@
       <c r="CH19" s="4">
         <v>1.6589303373989894E-2</v>
       </c>
-      <c r="CI19" s="4"/>
+      <c r="CI19" s="4">
+        <v>1.4895501239815756E-2</v>
+      </c>
       <c r="CJ19" s="4"/>
       <c r="CK19" s="4"/>
       <c r="CL19" s="4"/>
@@ -2751,7 +2764,9 @@
       <c r="CH20" s="4">
         <v>7.1249359021317238E-2</v>
       </c>
-      <c r="CI20" s="4"/>
+      <c r="CI20" s="4">
+        <v>9.2781989432575207E-2</v>
+      </c>
       <c r="CJ20" s="4"/>
       <c r="CK20" s="4"/>
       <c r="CL20" s="4"/>
@@ -3082,7 +3097,9 @@
       <c r="CH21" s="4">
         <v>9.327869582646664E-2</v>
       </c>
-      <c r="CI21" s="4"/>
+      <c r="CI21" s="4">
+        <v>9.8590927161093855E-2</v>
+      </c>
       <c r="CJ21" s="4"/>
       <c r="CK21" s="4"/>
       <c r="CL21" s="4"/>
@@ -3413,7 +3430,9 @@
       <c r="CH22" s="4">
         <v>6.3105680957688426E-2</v>
       </c>
-      <c r="CI22" s="4"/>
+      <c r="CI22" s="4">
+        <v>5.9175807886154619E-2</v>
+      </c>
       <c r="CJ22" s="4"/>
       <c r="CK22" s="4"/>
       <c r="CL22" s="4"/>
@@ -3744,7 +3763,9 @@
       <c r="CH23" s="4">
         <v>4.0762555640483811E-2</v>
       </c>
-      <c r="CI23" s="4"/>
+      <c r="CI23" s="4">
+        <v>4.0748622934401624E-2</v>
+      </c>
       <c r="CJ23" s="4"/>
       <c r="CK23" s="4"/>
       <c r="CL23" s="4"/>
@@ -4075,7 +4096,9 @@
       <c r="CH24" s="5">
         <v>0.13458319111934602</v>
       </c>
-      <c r="CI24" s="5"/>
+      <c r="CI24" s="5">
+        <v>0.12946223008506408</v>
+      </c>
       <c r="CJ24" s="5"/>
       <c r="CK24" s="5"/>
       <c r="CL24" s="5"/>

--- a/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -323,16 +323,19 @@
     <t>2°Q/12/2022</t>
   </si>
   <si>
+    <t>Última actualización:  03/09/2023</t>
+  </si>
+  <si>
     <t>1°Q/1/2023</t>
   </si>
   <si>
     <t>2°Q/1/2023</t>
   </si>
   <si>
-    <t>Última actualización:  02/23/2023</t>
-  </si>
-  <si>
     <t>1°Q/2/2023</t>
+  </si>
+  <si>
+    <t>2°Q/2/2023</t>
   </si>
 </sst>
 </file>
@@ -827,7 +830,7 @@
     </row>
     <row r="11" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:157" x14ac:dyDescent="0.25">
@@ -1094,15 +1097,17 @@
         <v>97</v>
       </c>
       <c r="CG15" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CH15" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CI15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CJ15" s="3"/>
+      <c r="CJ15" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="CK15" s="3"/>
       <c r="CL15" s="3"/>
       <c r="CM15" s="3"/>
@@ -1435,7 +1440,9 @@
       <c r="CI16" s="4">
         <v>8.1314675446848561E-2</v>
       </c>
-      <c r="CJ16" s="4"/>
+      <c r="CJ16" s="4">
+        <v>7.8441545400534052E-2</v>
+      </c>
       <c r="CK16" s="4"/>
       <c r="CL16" s="4"/>
       <c r="CM16" s="4"/>
@@ -1768,7 +1775,9 @@
       <c r="CI17" s="4">
         <v>0.12015411472472382</v>
       </c>
-      <c r="CJ17" s="4"/>
+      <c r="CJ17" s="4">
+        <v>0.11940127095934461</v>
+      </c>
       <c r="CK17" s="4"/>
       <c r="CL17" s="4"/>
       <c r="CM17" s="4"/>
@@ -2101,7 +2110,9 @@
       <c r="CI18" s="4">
         <v>0.12129196688640209</v>
       </c>
-      <c r="CJ18" s="4"/>
+      <c r="CJ18" s="4">
+        <v>9.5925433258804427E-2</v>
+      </c>
       <c r="CK18" s="4"/>
       <c r="CL18" s="4"/>
       <c r="CM18" s="4"/>
@@ -2434,7 +2445,9 @@
       <c r="CI19" s="4">
         <v>1.4895501239815756E-2</v>
       </c>
-      <c r="CJ19" s="4"/>
+      <c r="CJ19" s="4">
+        <v>1.6331658291457218E-2</v>
+      </c>
       <c r="CK19" s="4"/>
       <c r="CL19" s="4"/>
       <c r="CM19" s="4"/>
@@ -2767,7 +2780,9 @@
       <c r="CI20" s="4">
         <v>9.2781989432575207E-2</v>
       </c>
-      <c r="CJ20" s="4"/>
+      <c r="CJ20" s="4">
+        <v>8.4395035909853977E-2</v>
+      </c>
       <c r="CK20" s="4"/>
       <c r="CL20" s="4"/>
       <c r="CM20" s="4"/>
@@ -3100,7 +3115,9 @@
       <c r="CI21" s="4">
         <v>9.8590927161093855E-2</v>
       </c>
-      <c r="CJ21" s="4"/>
+      <c r="CJ21" s="4">
+        <v>9.8089261668177663E-2</v>
+      </c>
       <c r="CK21" s="4"/>
       <c r="CL21" s="4"/>
       <c r="CM21" s="4"/>
@@ -3433,7 +3450,9 @@
       <c r="CI22" s="4">
         <v>5.9175807886154619E-2</v>
       </c>
-      <c r="CJ22" s="4"/>
+      <c r="CJ22" s="4">
+        <v>5.5822030397801425E-2</v>
+      </c>
       <c r="CK22" s="4"/>
       <c r="CL22" s="4"/>
       <c r="CM22" s="4"/>
@@ -3766,7 +3785,9 @@
       <c r="CI23" s="4">
         <v>4.0748622934401624E-2</v>
       </c>
-      <c r="CJ23" s="4"/>
+      <c r="CJ23" s="4">
+        <v>3.6998972250770867E-2</v>
+      </c>
       <c r="CK23" s="4"/>
       <c r="CL23" s="4"/>
       <c r="CM23" s="4"/>
@@ -4099,7 +4120,9 @@
       <c r="CI24" s="5">
         <v>0.12946223008506408</v>
       </c>
-      <c r="CJ24" s="5"/>
+      <c r="CJ24" s="5">
+        <v>0.1202303120954058</v>
+      </c>
       <c r="CK24" s="5"/>
       <c r="CL24" s="5"/>
       <c r="CM24" s="5"/>

--- a/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_anual_grupo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -323,9 +323,6 @@
     <t>2°Q/12/2022</t>
   </si>
   <si>
-    <t>Última actualización:  03/09/2023</t>
-  </si>
-  <si>
     <t>1°Q/1/2023</t>
   </si>
   <si>
@@ -336,6 +333,12 @@
   </si>
   <si>
     <t>2°Q/2/2023</t>
+  </si>
+  <si>
+    <t>Última actualización:  03/23/2023</t>
+  </si>
+  <si>
+    <t>1°Q/3/2023</t>
   </si>
 </sst>
 </file>
@@ -830,7 +833,7 @@
     </row>
     <row r="11" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:157" x14ac:dyDescent="0.25">
@@ -1097,18 +1100,20 @@
         <v>97</v>
       </c>
       <c r="CG15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="CH15" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="CH15" s="3" t="s">
+      <c r="CI15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="CI15" s="3" t="s">
+      <c r="CJ15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CJ15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="CK15" s="3"/>
+      <c r="CK15" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="CL15" s="3"/>
       <c r="CM15" s="3"/>
       <c r="CN15" s="3"/>
@@ -1443,7 +1448,9 @@
       <c r="CJ16" s="4">
         <v>7.8441545400534052E-2</v>
       </c>
-      <c r="CK16" s="4"/>
+      <c r="CK16" s="4">
+        <v>7.3859997837676161E-2</v>
+      </c>
       <c r="CL16" s="4"/>
       <c r="CM16" s="4"/>
       <c r="CN16" s="4"/>
@@ -1778,7 +1785,9 @@
       <c r="CJ17" s="4">
         <v>0.11940127095934461</v>
       </c>
-      <c r="CK17" s="4"/>
+      <c r="CK17" s="4">
+        <v>0.11714065280992436</v>
+      </c>
       <c r="CL17" s="4"/>
       <c r="CM17" s="4"/>
       <c r="CN17" s="4"/>
@@ -2113,7 +2122,9 @@
       <c r="CJ18" s="4">
         <v>9.5925433258804427E-2</v>
       </c>
-      <c r="CK18" s="4"/>
+      <c r="CK18" s="4">
+        <v>7.0821451313713091E-2</v>
+      </c>
       <c r="CL18" s="4"/>
       <c r="CM18" s="4"/>
       <c r="CN18" s="4"/>
@@ -2448,7 +2459,9 @@
       <c r="CJ19" s="4">
         <v>1.6331658291457218E-2</v>
       </c>
-      <c r="CK19" s="4"/>
+      <c r="CK19" s="4">
+        <v>1.0666853190874903E-3</v>
+      </c>
       <c r="CL19" s="4"/>
       <c r="CM19" s="4"/>
       <c r="CN19" s="4"/>
@@ -2783,7 +2796,9 @@
       <c r="CJ20" s="4">
         <v>8.4395035909853977E-2</v>
       </c>
-      <c r="CK20" s="4"/>
+      <c r="CK20" s="4">
+        <v>6.8648959700767787E-2</v>
+      </c>
       <c r="CL20" s="4"/>
       <c r="CM20" s="4"/>
       <c r="CN20" s="4"/>
@@ -3118,7 +3133,9 @@
       <c r="CJ21" s="4">
         <v>9.8089261668177663E-2</v>
       </c>
-      <c r="CK21" s="4"/>
+      <c r="CK21" s="4">
+        <v>9.5684984520123972E-2</v>
+      </c>
       <c r="CL21" s="4"/>
       <c r="CM21" s="4"/>
       <c r="CN21" s="4"/>
@@ -3453,7 +3470,9 @@
       <c r="CJ22" s="4">
         <v>5.5822030397801425E-2</v>
       </c>
-      <c r="CK22" s="4"/>
+      <c r="CK22" s="4">
+        <v>5.5334714056654244E-2</v>
+      </c>
       <c r="CL22" s="4"/>
       <c r="CM22" s="4"/>
       <c r="CN22" s="4"/>
@@ -3788,7 +3807,9 @@
       <c r="CJ23" s="4">
         <v>3.6998972250770867E-2</v>
       </c>
-      <c r="CK23" s="4"/>
+      <c r="CK23" s="4">
+        <v>4.6333984830282171E-2</v>
+      </c>
       <c r="CL23" s="4"/>
       <c r="CM23" s="4"/>
       <c r="CN23" s="4"/>
@@ -4123,7 +4144,9 @@
       <c r="CJ24" s="5">
         <v>0.1202303120954058</v>
       </c>
-      <c r="CK24" s="5"/>
+      <c r="CK24" s="5">
+        <v>0.1288030826041584</v>
+      </c>
       <c r="CL24" s="5"/>
       <c r="CM24" s="5"/>
       <c r="CN24" s="5"/>
